--- a/BeagleBone Blue Pin Table.xlsx
+++ b/BeagleBone Blue Pin Table.xlsx
@@ -1912,12 +1912,6 @@
     <t>PWM_2B (Mot4)</t>
   </si>
   <si>
-    <t>Strawson Design -  2014</t>
-  </si>
-  <si>
-    <t>Robotics Cape SD-101C Pin Usage</t>
-  </si>
-  <si>
     <t>QEP_1A</t>
   </si>
   <si>
@@ -1970,6 +1964,12 @@
   </si>
   <si>
     <t>spare_gpio_2</t>
+  </si>
+  <si>
+    <t>Beagle Bone Blue AM335X Pin MUX table</t>
+  </si>
+  <si>
+    <t>Strawson Design -  2015</t>
   </si>
 </sst>
 </file>
@@ -2672,6 +2672,33 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2680,12 +2707,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2715,27 +2736,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3049,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ591"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="130" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,53 +3073,53 @@
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="61" t="s">
-        <v>632</v>
-      </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="D1" s="70" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="63" t="s">
-        <v>631</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="B2" s="72" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
@@ -3168,18 +3168,18 @@
       <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="18" spans="1:43" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>88</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="19" spans="1:43" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>97</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>106</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="21" spans="1:43" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B21" s="26">
         <v>18</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="29" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="54" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B29" s="13">
         <v>26</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>232</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="54" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>241</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="54" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>250</v>
@@ -5067,18 +5067,18 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="73"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="80"/>
       <c r="L51" s="23"/>
       <c r="M51" s="1"/>
     </row>
@@ -5129,16 +5129,16 @@
       </c>
       <c r="C53" s="50"/>
       <c r="D53" s="50"/>
-      <c r="E53" s="74" t="s">
+      <c r="E53" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="75"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="82"/>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5150,16 +5150,16 @@
       </c>
       <c r="C54" s="50"/>
       <c r="D54" s="50"/>
-      <c r="E54" s="64" t="s">
+      <c r="E54" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="65"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5171,16 +5171,16 @@
       </c>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="65"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="64"/>
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5190,42 +5190,42 @@
       </c>
       <c r="C56" s="50"/>
       <c r="D56" s="50"/>
-      <c r="E56" s="64" t="s">
+      <c r="E56" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="65"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="54" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B57" s="46">
         <v>9</v>
       </c>
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
-      <c r="E57" s="64" t="s">
+      <c r="E57" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="65"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B58" s="13">
         <v>10</v>
@@ -5234,16 +5234,16 @@
         <v>325</v>
       </c>
       <c r="D58" s="48"/>
-      <c r="E58" s="64" t="s">
+      <c r="E58" s="63" t="s">
         <v>571</v>
       </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="65"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="64"/>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5476,7 +5476,7 @@
         <v>227</v>
       </c>
       <c r="L64" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M64" s="1"/>
     </row>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B71" s="13">
         <v>23</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="72" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="54" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B72" s="13">
         <v>24</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="74" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="54" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B74" s="13">
         <v>26</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B77" s="13">
         <v>29</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="78" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B78" s="13">
         <v>30</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="80" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B80" s="13">
         <v>32</v>
@@ -6090,16 +6090,16 @@
       <c r="D80" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="E80" s="76" t="s">
+      <c r="E80" s="65" t="s">
         <v>428</v>
       </c>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
-      <c r="K80" s="76"/>
-      <c r="L80" s="77"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="66"/>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6113,16 +6113,16 @@
       <c r="D81" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="E81" s="80" t="s">
+      <c r="E81" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="80"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="80"/>
-      <c r="K81" s="80"/>
-      <c r="L81" s="81"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="68"/>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6136,16 +6136,16 @@
       <c r="D82" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="E82" s="76" t="s">
+      <c r="E82" s="65" t="s">
         <v>431</v>
       </c>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="77"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="66"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6161,16 +6161,16 @@
       <c r="D83" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="E83" s="76" t="s">
+      <c r="E83" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="76"/>
-      <c r="K83" s="76"/>
-      <c r="L83" s="77"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="66"/>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6186,16 +6186,16 @@
       <c r="D84" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="E84" s="82" t="s">
+      <c r="E84" s="69" t="s">
         <v>435</v>
       </c>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-      <c r="L84" s="82"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6211,16 +6211,16 @@
       <c r="D85" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="E85" s="76" t="s">
+      <c r="E85" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="76"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="77"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="66"/>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6236,16 +6236,16 @@
       <c r="D86" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="E86" s="76" t="s">
+      <c r="E86" s="65" t="s">
         <v>439</v>
       </c>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="76"/>
-      <c r="K86" s="76"/>
-      <c r="L86" s="77"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="66"/>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6261,16 +6261,16 @@
       <c r="D87" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="E87" s="76" t="s">
+      <c r="E87" s="65" t="s">
         <v>441</v>
       </c>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="76"/>
-      <c r="K87" s="76"/>
-      <c r="L87" s="77"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="66"/>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6286,16 +6286,16 @@
       <c r="D88" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="E88" s="76" t="s">
+      <c r="E88" s="65" t="s">
         <v>443</v>
       </c>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="76"/>
-      <c r="K88" s="76"/>
-      <c r="L88" s="77"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="66"/>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6333,7 +6333,7 @@
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="58" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B90" s="60"/>
       <c r="C90" s="2" t="s">
@@ -6367,11 +6367,11 @@
       <c r="B91" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="C91" s="79" t="s">
+      <c r="C91" s="62" t="s">
         <v>458</v>
       </c>
       <c r="D91" s="32"/>
-      <c r="E91" s="79" t="s">
+      <c r="E91" s="62" t="s">
         <v>459</v>
       </c>
       <c r="F91" s="35" t="s">
@@ -6398,9 +6398,9 @@
     <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="58"/>
       <c r="B92" s="56"/>
-      <c r="C92" s="79"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="32"/>
-      <c r="E92" s="79"/>
+      <c r="E92" s="62"/>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35" t="s">
@@ -6448,17 +6448,17 @@
       <c r="B94" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="C94" s="78" t="s">
+      <c r="C94" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="78"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
-      <c r="H94" s="78"/>
-      <c r="I94" s="78"/>
-      <c r="J94" s="78"/>
-      <c r="K94" s="78"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="61"/>
       <c r="L94" s="30"/>
       <c r="M94" s="1"/>
     </row>
@@ -14393,6 +14393,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="E55:L55"/>
+    <mergeCell ref="E56:L56"/>
+    <mergeCell ref="E57:L57"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="E53:L53"/>
+    <mergeCell ref="E54:L54"/>
     <mergeCell ref="C94:K94"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="E91:E92"/>
@@ -14405,16 +14415,6 @@
     <mergeCell ref="E85:L85"/>
     <mergeCell ref="E86:L86"/>
     <mergeCell ref="E87:L87"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="E55:L55"/>
-    <mergeCell ref="E56:L56"/>
-    <mergeCell ref="E57:L57"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="E53:L53"/>
-    <mergeCell ref="E54:L54"/>
     <mergeCell ref="E88:L88"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/BeagleBone Blue Pin Table.xlsx
+++ b/BeagleBone Blue Pin Table.xlsx
@@ -1960,16 +1960,16 @@
     <t>SERVO_PWR (80)</t>
   </si>
   <si>
-    <t>spare_gpio_1</t>
-  </si>
-  <si>
-    <t>spare_gpio_2</t>
-  </si>
-  <si>
     <t>Beagle Bone Blue AM335X Pin MUX table</t>
   </si>
   <si>
     <t>Strawson Design -  2015</t>
+  </si>
+  <si>
+    <t>BT_EN</t>
+  </si>
+  <si>
+    <t>WIFI_EN</t>
   </si>
 </sst>
 </file>
@@ -3049,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ591"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,7 +3074,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="1"/>
       <c r="D1" s="70" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E1" s="71"/>
       <c r="F1" s="71"/>
@@ -3090,7 +3090,7 @@
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="72" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B71" s="13">
         <v>23</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="58" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B90" s="60"/>
       <c r="C90" s="2" t="s">

--- a/BeagleBone Blue Pin Table.xlsx
+++ b/BeagleBone Blue Pin Table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="360" windowWidth="20730" windowHeight="11700"/>
+    <workbookView xWindow="40" yWindow="360" windowWidth="20740" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="AM335x Pins" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'AM335x Pins'!$A$1:$M$95</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1519,12 +1524,6 @@
     <t>MDIR_1B</t>
   </si>
   <si>
-    <t>QEP_0B</t>
-  </si>
-  <si>
-    <t>QEP_0A</t>
-  </si>
-  <si>
     <t>V_DIV_BAT</t>
   </si>
   <si>
@@ -2405,6 +2404,12 @@
   </si>
   <si>
     <t>***HDMI_INT</t>
+  </si>
+  <si>
+    <t>QEP_3A</t>
+  </si>
+  <si>
+    <t>QEP_3B</t>
   </si>
 </sst>
 </file>
@@ -2648,16 +2653,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2724,24 +2729,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2750,14 +2755,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
@@ -2772,7 +2777,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -2781,7 +2786,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
@@ -2794,12 +2799,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2812,7 +2817,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2823,7 +2828,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2841,7 +2846,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FFDDDDDD"/>
@@ -2854,7 +2859,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
@@ -2866,14 +2871,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2881,23 +2886,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2925,16 +2930,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2953,7 +2958,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
@@ -2966,7 +2971,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
@@ -3175,6 +3180,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3183,12 +3242,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3219,54 +3272,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3579,87 +3584,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR592"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A98" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="36" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" ht="23">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="63" t="s">
-        <v>641</v>
-      </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="D1" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44">
       <c r="A2" s="10"/>
-      <c r="B2" s="65" t="s">
-        <v>642</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
+      <c r="B2" s="83" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" ht="15" thickBot="1">
       <c r="A3" s="22"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:44" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" ht="29" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>1</v>
@@ -3671,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>3</v>
@@ -3689,7 +3694,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>8</v>
@@ -3698,26 +3703,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" s="6" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="88"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -3750,9 +3755,9 @@
       <c r="AQ5"/>
       <c r="AR5"/>
     </row>
-    <row r="6" spans="1:44" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -3761,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>13</v>
@@ -3776,10 +3781,10 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>16</v>
@@ -3816,9 +3821,9 @@
       <c r="AQ6"/>
       <c r="AR6"/>
     </row>
-    <row r="7" spans="1:44" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -3827,7 +3832,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>18</v>
@@ -3842,10 +3847,10 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>21</v>
@@ -3882,9 +3887,9 @@
       <c r="AQ7"/>
       <c r="AR7"/>
     </row>
-    <row r="8" spans="1:44" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -3893,7 +3898,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>23</v>
@@ -3908,10 +3913,10 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>26</v>
@@ -3948,9 +3953,9 @@
       <c r="AQ8"/>
       <c r="AR8"/>
     </row>
-    <row r="9" spans="1:44" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B9" s="12">
         <v>6</v>
@@ -3959,7 +3964,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>28</v>
@@ -3974,10 +3979,10 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>31</v>
@@ -4014,7 +4019,7 @@
       <c r="AQ9"/>
       <c r="AR9"/>
     </row>
-    <row r="10" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" ht="15" thickBot="1">
       <c r="A10" s="33" t="s">
         <v>485</v>
       </c>
@@ -4025,7 +4030,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E10" s="59" t="s">
         <v>33</v>
@@ -4040,16 +4045,16 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" ht="15" thickBot="1">
       <c r="A11" s="33" t="s">
         <v>484</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E11" s="59" t="s">
         <v>38</v>
@@ -4075,16 +4080,16 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M11" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="15" thickBot="1">
       <c r="A12" s="33" t="s">
         <v>478</v>
       </c>
@@ -4095,7 +4100,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E12" s="59" t="s">
         <v>43</v>
@@ -4110,16 +4115,16 @@
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M12" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="15" thickBot="1">
       <c r="A13" s="33" t="s">
         <v>477</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E13" s="59" t="s">
         <v>48</v>
@@ -4145,18 +4150,18 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A14" s="33" t="s">
-        <v>483</v>
+        <v>795</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>52</v>
@@ -4165,7 +4170,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>54</v>
@@ -4186,10 +4191,10 @@
         <v>59</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M14" s="26" t="s">
         <v>60</v>
@@ -4226,9 +4231,9 @@
       <c r="AQ14"/>
       <c r="AR14"/>
     </row>
-    <row r="15" spans="1:44" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A15" s="33" t="s">
-        <v>482</v>
+        <v>794</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>61</v>
@@ -4258,10 +4263,10 @@
         <v>68</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M15" s="26" t="s">
         <v>69</v>
@@ -4298,9 +4303,9 @@
       <c r="AQ15"/>
       <c r="AR15"/>
     </row>
-    <row r="16" spans="1:44" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A16" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>70</v>
@@ -4330,10 +4335,10 @@
         <v>77</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M16" s="26" t="s">
         <v>78</v>
@@ -4370,7 +4375,7 @@
       <c r="AQ16"/>
       <c r="AR16"/>
     </row>
-    <row r="17" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" ht="15" thickBot="1">
       <c r="A17" s="33" t="s">
         <v>481</v>
       </c>
@@ -4402,18 +4407,18 @@
         <v>86</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" ht="30.75" customHeight="1" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>88</v>
@@ -4422,7 +4427,7 @@
         <v>89</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E18" s="59" t="s">
         <v>90</v>
@@ -4443,18 +4448,18 @@
         <v>95</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L18" s="52" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M18" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" ht="30.75" customHeight="1" thickBot="1">
       <c r="A19" s="54" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>97</v>
@@ -4463,7 +4468,7 @@
         <v>98</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E19" s="59" t="s">
         <v>99</v>
@@ -4484,18 +4489,18 @@
         <v>104</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M19" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" ht="15" thickBot="1">
       <c r="A20" s="25" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>106</v>
@@ -4525,18 +4530,18 @@
         <v>113</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L20" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" ht="15" thickBot="1">
       <c r="A21" s="53" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B21" s="26">
         <v>18</v>
@@ -4564,7 +4569,7 @@
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>121</v>
@@ -4573,9 +4578,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:44" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A22" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>123</v>
@@ -4605,10 +4610,10 @@
         <v>129</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L22" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>130</v>
@@ -4645,9 +4650,9 @@
       <c r="AQ22"/>
       <c r="AR22"/>
     </row>
-    <row r="23" spans="1:44" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" ht="30.75" customHeight="1" thickBot="1">
       <c r="A23" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>131</v>
@@ -4656,7 +4661,7 @@
         <v>132</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>133</v>
@@ -4675,18 +4680,18 @@
         <v>278</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" ht="30.75" customHeight="1" thickBot="1">
       <c r="A24" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>138</v>
@@ -4695,7 +4700,7 @@
         <v>139</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>140</v>
@@ -4711,21 +4716,21 @@
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" ht="15" thickBot="1">
       <c r="A25" s="49" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B25" s="12">
         <v>22</v>
@@ -4734,7 +4739,7 @@
         <v>145</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>146</v>
@@ -4748,13 +4753,13 @@
       <c r="H25" s="8"/>
       <c r="I25" s="37"/>
       <c r="J25" s="45" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K25" s="42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>149</v>
@@ -4762,9 +4767,9 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" ht="15" thickBot="1">
       <c r="A26" s="49" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B26" s="12">
         <v>23</v>
@@ -4773,7 +4778,7 @@
         <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>151</v>
@@ -4787,13 +4792,13 @@
       <c r="H26" s="8"/>
       <c r="I26" s="37"/>
       <c r="J26" s="45" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K26" s="42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>154</v>
@@ -4801,9 +4806,9 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" ht="15" thickBot="1">
       <c r="A27" s="49" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B27" s="12">
         <v>24</v>
@@ -4812,7 +4817,7 @@
         <v>155</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>156</v>
@@ -4826,13 +4831,13 @@
       <c r="H27" s="8"/>
       <c r="I27" s="37"/>
       <c r="J27" s="45" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K27" s="42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L27" s="40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>159</v>
@@ -4840,9 +4845,9 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" ht="15" thickBot="1">
       <c r="A28" s="27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B28" s="12">
         <v>25</v>
@@ -4851,7 +4856,7 @@
         <v>160</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>161</v>
@@ -4865,13 +4870,13 @@
       <c r="H28" s="8"/>
       <c r="I28" s="37"/>
       <c r="J28" s="45" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K28" s="42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>164</v>
@@ -4879,9 +4884,9 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" ht="15" thickBot="1">
       <c r="A29" s="53" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B29" s="13">
         <v>26</v>
@@ -4902,13 +4907,13 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M29" s="52" t="s">
         <v>168</v>
@@ -4916,7 +4921,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="25" t="s">
         <v>486</v>
       </c>
@@ -4941,13 +4946,13 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L30" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M30" s="32" t="s">
         <v>174</v>
@@ -4955,7 +4960,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:44" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="25" t="s">
         <v>487</v>
       </c>
@@ -4980,13 +4985,13 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L31" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M31" s="32" t="s">
         <v>180</v>
@@ -4994,7 +4999,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:44" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" ht="13.5" customHeight="1" thickBot="1">
       <c r="A32" s="25" t="s">
         <v>488</v>
       </c>
@@ -5019,13 +5024,13 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
       <c r="J32" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L32" s="32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M32" s="32" t="s">
         <v>186</v>
@@ -5033,7 +5038,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="25" t="s">
         <v>489</v>
       </c>
@@ -5058,13 +5063,13 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L33" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M33" s="32" t="s">
         <v>192</v>
@@ -5072,9 +5077,9 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92" t="s">
-        <v>776</v>
+    <row r="34" spans="1:15" ht="15" thickBot="1">
+      <c r="A34" s="64" t="s">
+        <v>774</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>193</v>
@@ -5083,7 +5088,7 @@
         <v>194</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>195</v>
@@ -5104,7 +5109,7 @@
         <v>200</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>201</v>
@@ -5115,9 +5120,9 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15" thickBot="1">
       <c r="A35" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>203</v>
@@ -5126,7 +5131,7 @@
         <v>204</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>205</v>
@@ -5147,7 +5152,7 @@
         <v>210</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>211</v>
@@ -5158,9 +5163,9 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15" thickBot="1">
       <c r="A36" s="25" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>213</v>
@@ -5169,7 +5174,7 @@
         <v>214</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>215</v>
@@ -5190,7 +5195,7 @@
         <v>210</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>219</v>
@@ -5201,7 +5206,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15" thickBot="1">
       <c r="A37" s="49"/>
       <c r="B37" s="32" t="s">
         <v>221</v>
@@ -5210,7 +5215,7 @@
         <v>222</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E37" s="32" t="s">
         <v>223</v>
@@ -5231,7 +5236,7 @@
         <v>228</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>229</v>
@@ -5242,9 +5247,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" thickBot="1">
       <c r="A38" s="25" t="s">
-        <v>626</v>
+        <v>482</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>231</v>
@@ -5253,7 +5258,7 @@
         <v>232</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>233</v>
@@ -5274,7 +5279,7 @@
         <v>228</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>238</v>
@@ -5285,9 +5290,9 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" thickBot="1">
       <c r="A39" s="53" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>240</v>
@@ -5296,7 +5301,7 @@
         <v>241</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>242</v>
@@ -5314,10 +5319,10 @@
         <v>246</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L39" s="32" t="s">
         <v>247</v>
@@ -5328,9 +5333,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="53" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>249</v>
@@ -5360,7 +5365,7 @@
         <v>256</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L40" s="32" t="s">
         <v>257</v>
@@ -5371,9 +5376,9 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="92" t="s">
-        <v>778</v>
+    <row r="41" spans="1:15" ht="15" thickBot="1">
+      <c r="A41" s="64" t="s">
+        <v>776</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>259</v>
@@ -5403,7 +5408,7 @@
         <v>200</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>265</v>
@@ -5414,7 +5419,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="25" t="s">
         <v>490</v>
       </c>
@@ -5441,13 +5446,13 @@
         <v>104</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L42" s="32" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M42" s="32" t="s">
         <v>272</v>
@@ -5455,7 +5460,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="25" t="s">
         <v>491</v>
       </c>
@@ -5485,10 +5490,10 @@
         <v>278</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L43" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M43" s="32" t="s">
         <v>279</v>
@@ -5496,7 +5501,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="25" t="s">
         <v>495</v>
       </c>
@@ -5523,13 +5528,13 @@
         <v>285</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L44" s="32" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M44" s="32" t="s">
         <v>286</v>
@@ -5537,7 +5542,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="31" t="s">
         <v>496</v>
       </c>
@@ -5564,13 +5569,13 @@
         <v>59</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L45" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M45" s="32" t="s">
         <v>292</v>
@@ -5578,7 +5583,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A46" s="25" t="s">
         <v>497</v>
       </c>
@@ -5605,13 +5610,13 @@
         <v>86</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L46" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>298</v>
@@ -5619,9 +5624,9 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
       <c r="A47" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>299</v>
@@ -5646,13 +5651,13 @@
         <v>113</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K47" s="32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L47" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>304</v>
@@ -5660,7 +5665,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A48" s="25" t="s">
         <v>493</v>
       </c>
@@ -5687,13 +5692,13 @@
         <v>129</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L48" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>310</v>
@@ -5701,7 +5706,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="25" t="s">
         <v>494</v>
       </c>
@@ -5728,13 +5733,13 @@
         <v>77</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L49" s="32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>316</v>
@@ -5742,7 +5747,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="21"/>
       <c r="B50" s="10"/>
       <c r="C50" s="1"/>
@@ -5758,25 +5763,25 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="15" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="89" t="s">
         <v>317</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="75"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="91"/>
       <c r="M51" s="23"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="29" thickBot="1">
       <c r="A52" s="24" t="s">
         <v>474</v>
       </c>
@@ -5790,7 +5795,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>3</v>
@@ -5808,7 +5813,7 @@
         <v>7</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>8</v>
@@ -5817,7 +5822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="16" thickTop="1" thickBot="1">
       <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
@@ -5827,19 +5832,19 @@
       <c r="C53" s="50"/>
       <c r="D53" s="50"/>
       <c r="E53" s="50"/>
-      <c r="F53" s="76" t="s">
+      <c r="F53" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="93"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="25" t="s">
         <v>472</v>
       </c>
@@ -5849,19 +5854,19 @@
       <c r="C54" s="50"/>
       <c r="D54" s="50"/>
       <c r="E54" s="50"/>
-      <c r="F54" s="66" t="s">
+      <c r="F54" s="74" t="s">
         <v>472</v>
       </c>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="67"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="75"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="25" t="s">
         <v>473</v>
       </c>
@@ -5871,19 +5876,19 @@
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
-      <c r="F55" s="66" t="s">
+      <c r="F55" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="67"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="75"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="15" thickBot="1">
       <c r="A56" s="27"/>
       <c r="B56" s="46" t="s">
         <v>321</v>
@@ -5891,21 +5896,21 @@
       <c r="C56" s="50"/>
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="67"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="75"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="53" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B57" s="46">
         <v>9</v>
@@ -5913,21 +5918,21 @@
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
-      <c r="F57" s="66" t="s">
+      <c r="F57" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="67"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="75"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A58" s="53" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B58" s="13">
         <v>10</v>
@@ -5937,19 +5942,19 @@
       </c>
       <c r="D58" s="48"/>
       <c r="E58" s="48"/>
-      <c r="F58" s="66" t="s">
-        <v>566</v>
-      </c>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="67"/>
+      <c r="F58" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="75"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A59" s="25" t="s">
         <v>479</v>
       </c>
@@ -5960,10 +5965,10 @@
         <v>325</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>326</v>
@@ -5981,19 +5986,19 @@
         <v>330</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>331</v>
       </c>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="25" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B60" s="13">
         <v>12</v>
@@ -6002,10 +6007,10 @@
         <v>332</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>135</v>
@@ -6023,7 +6028,7 @@
         <v>335</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L60" s="32" t="s">
         <v>237</v>
@@ -6033,7 +6038,7 @@
       </c>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A61" s="25" t="s">
         <v>499</v>
       </c>
@@ -6044,10 +6049,10 @@
         <v>337</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>338</v>
@@ -6065,19 +6070,19 @@
         <v>342</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L61" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>343</v>
       </c>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
       <c r="A62" s="25" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B62" s="13">
         <v>14</v>
@@ -6086,10 +6091,10 @@
         <v>344</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>297</v>
@@ -6107,7 +6112,7 @@
         <v>197</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>245</v>
@@ -6117,21 +6122,21 @@
       </c>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A63" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="B63" s="91">
+      <c r="B63" s="69">
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>348</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>309</v>
@@ -6149,27 +6154,27 @@
         <v>235</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L63" s="32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>352</v>
       </c>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:15" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="86"/>
-      <c r="B64" s="90"/>
+    <row r="64" spans="1:15" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A64" s="63"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -6181,9 +6186,9 @@
       <c r="M64" s="60"/>
       <c r="N64" s="61"/>
     </row>
-    <row r="65" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" ht="16.5" customHeight="1" thickBot="1">
       <c r="A65" s="25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B65" s="13">
         <v>16</v>
@@ -6192,10 +6197,10 @@
         <v>353</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>303</v>
@@ -6213,19 +6218,19 @@
         <v>207</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>226</v>
       </c>
       <c r="M65" s="32" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="15" thickBot="1">
       <c r="A66" s="25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B66" s="13">
         <v>17</v>
@@ -6253,19 +6258,19 @@
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L66" s="32" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>361</v>
       </c>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" ht="15" thickBot="1">
       <c r="A67" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B67" s="13">
         <v>18</v>
@@ -6293,19 +6298,19 @@
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L67" s="32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>367</v>
       </c>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:30" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A68" s="25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B68" s="51">
         <v>19</v>
@@ -6335,10 +6340,10 @@
         <v>372</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L68" s="32" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>373</v>
@@ -6361,9 +6366,9 @@
       <c r="AC68"/>
       <c r="AD68"/>
     </row>
-    <row r="69" spans="1:30" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" s="6" customFormat="1" ht="15" thickBot="1">
       <c r="A69" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B69" s="51">
         <v>20</v>
@@ -6393,10 +6398,10 @@
         <v>378</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L69" s="32" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M69" s="16" t="s">
         <v>379</v>
@@ -6419,9 +6424,9 @@
       <c r="AC69"/>
       <c r="AD69"/>
     </row>
-    <row r="70" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" ht="15" thickBot="1">
       <c r="A70" s="25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B70" s="13">
         <v>21</v>
@@ -6430,10 +6435,10 @@
         <v>380</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F70" s="59" t="s">
         <v>381</v>
@@ -6449,19 +6454,19 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L70" s="32" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>384</v>
       </c>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" ht="15" thickBot="1">
       <c r="A71" s="25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B71" s="13">
         <v>22</v>
@@ -6470,10 +6475,10 @@
         <v>385</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F71" s="59" t="s">
         <v>386</v>
@@ -6489,19 +6494,19 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L71" s="32" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>389</v>
       </c>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" ht="15" thickBot="1">
       <c r="A72" s="25" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B72" s="13">
         <v>23</v>
@@ -6510,10 +6515,10 @@
         <v>390</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>315</v>
@@ -6531,7 +6536,7 @@
         <v>217</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>113</v>
@@ -6541,9 +6546,9 @@
       </c>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" ht="15" thickBot="1">
       <c r="A73" s="53" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B73" s="13">
         <v>24</v>
@@ -6552,10 +6557,10 @@
         <v>394</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F73" s="60" t="s">
         <v>395</v>
@@ -6571,17 +6576,17 @@
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L73" s="32" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>397</v>
       </c>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" ht="15" thickBot="1">
       <c r="A74" s="25" t="s">
         <v>475</v>
       </c>
@@ -6592,10 +6597,10 @@
         <v>398</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>209</v>
@@ -6613,19 +6618,19 @@
         <v>401</v>
       </c>
       <c r="K74" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L74" s="32" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>402</v>
       </c>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" ht="15" thickBot="1">
       <c r="A75" s="53" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B75" s="13">
         <v>26</v>
@@ -6634,10 +6639,10 @@
         <v>403</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F75" s="60" t="s">
         <v>404</v>
@@ -6653,19 +6658,19 @@
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L75" s="32" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>406</v>
       </c>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" ht="15" thickBot="1">
       <c r="A76" s="25" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B76" s="13">
         <v>27</v>
@@ -6674,10 +6679,10 @@
         <v>407</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>121</v>
@@ -6695,19 +6700,19 @@
         <v>410</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L76" s="32" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>411</v>
       </c>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="92" t="s">
-        <v>793</v>
+    <row r="77" spans="1:30" ht="15" thickBot="1">
+      <c r="A77" s="64" t="s">
+        <v>791</v>
       </c>
       <c r="B77" s="13">
         <v>28</v>
@@ -6716,10 +6721,10 @@
         <v>412</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>227</v>
@@ -6737,19 +6742,19 @@
         <v>413</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L77" s="32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M77" s="5" t="s">
         <v>414</v>
       </c>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" ht="15" thickBot="1">
       <c r="A78" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B78" s="13">
         <v>29</v>
@@ -6758,10 +6763,10 @@
         <v>415</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>264</v>
@@ -6777,19 +6782,19 @@
         <v>417</v>
       </c>
       <c r="K78" s="32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L78" s="32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M78" s="3" t="s">
         <v>418</v>
       </c>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A79" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B79" s="13">
         <v>30</v>
@@ -6798,10 +6803,10 @@
         <v>419</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>246</v>
@@ -6817,17 +6822,17 @@
         <v>421</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L79" s="32" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M79" s="32" t="s">
         <v>422</v>
       </c>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:30" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" ht="13.5" customHeight="1" thickBot="1">
       <c r="A80" s="25" t="s">
         <v>476</v>
       </c>
@@ -6838,10 +6843,10 @@
         <v>423</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>255</v>
@@ -6857,19 +6862,19 @@
         <v>425</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L80" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>426</v>
       </c>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="15" thickBot="1">
       <c r="A81" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B81" s="13">
         <v>32</v>
@@ -6881,19 +6886,19 @@
       <c r="E81" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="F81" s="80" t="s">
+      <c r="F81" s="76" t="s">
         <v>427</v>
       </c>
-      <c r="G81" s="80"/>
-      <c r="H81" s="80"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="80"/>
-      <c r="K81" s="80"/>
-      <c r="L81" s="80"/>
-      <c r="M81" s="81"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="76"/>
+      <c r="M81" s="77"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="15" thickBot="1">
       <c r="A82" s="27"/>
       <c r="B82" s="13">
         <v>33</v>
@@ -6907,19 +6912,19 @@
       <c r="E82" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="F82" s="82" t="s">
+      <c r="F82" s="78" t="s">
         <v>429</v>
       </c>
-      <c r="G82" s="82"/>
-      <c r="H82" s="82"/>
-      <c r="I82" s="82"/>
-      <c r="J82" s="82"/>
-      <c r="K82" s="82"/>
-      <c r="L82" s="82"/>
-      <c r="M82" s="83"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="79"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15" thickBot="1">
       <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
@@ -6933,21 +6938,21 @@
       <c r="E83" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="F83" s="80" t="s">
+      <c r="F83" s="76" t="s">
         <v>430</v>
       </c>
-      <c r="G83" s="80"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
-      <c r="K83" s="80"/>
-      <c r="L83" s="80"/>
-      <c r="M83" s="81"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="76"/>
+      <c r="K83" s="76"/>
+      <c r="L83" s="76"/>
+      <c r="M83" s="77"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="15" thickBot="1">
       <c r="A84" s="25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B84" s="13">
         <v>35</v>
@@ -6961,21 +6966,21 @@
       <c r="E84" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="F84" s="80" t="s">
+      <c r="F84" s="76" t="s">
         <v>432</v>
       </c>
-      <c r="G84" s="80"/>
-      <c r="H84" s="80"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80"/>
-      <c r="K84" s="80"/>
-      <c r="L84" s="80"/>
-      <c r="M84" s="81"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="76"/>
+      <c r="M84" s="77"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="15" thickBot="1">
       <c r="A85" s="25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B85" s="13">
         <v>36</v>
@@ -6989,19 +6994,19 @@
       <c r="E85" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="F85" s="84" t="s">
+      <c r="F85" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="G85" s="84"/>
-      <c r="H85" s="84"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
+      <c r="G85" s="80"/>
+      <c r="H85" s="80"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="80"/>
+      <c r="L85" s="80"/>
+      <c r="M85" s="80"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="15" thickBot="1">
       <c r="A86" s="25" t="s">
         <v>436</v>
       </c>
@@ -7017,19 +7022,19 @@
       <c r="E86" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="F86" s="80" t="s">
+      <c r="F86" s="76" t="s">
         <v>436</v>
       </c>
-      <c r="G86" s="80"/>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
-      <c r="K86" s="80"/>
-      <c r="L86" s="80"/>
-      <c r="M86" s="81"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="76"/>
+      <c r="L86" s="76"/>
+      <c r="M86" s="77"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="15" thickBot="1">
       <c r="A87" s="25" t="s">
         <v>438</v>
       </c>
@@ -7045,19 +7050,19 @@
       <c r="E87" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="F87" s="80" t="s">
+      <c r="F87" s="76" t="s">
         <v>438</v>
       </c>
-      <c r="G87" s="80"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="80"/>
-      <c r="L87" s="80"/>
-      <c r="M87" s="81"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="76"/>
+      <c r="L87" s="76"/>
+      <c r="M87" s="77"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="15" thickBot="1">
       <c r="A88" s="25" t="s">
         <v>440</v>
       </c>
@@ -7073,19 +7078,19 @@
       <c r="E88" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="F88" s="80" t="s">
+      <c r="F88" s="76" t="s">
         <v>440</v>
       </c>
-      <c r="G88" s="80"/>
-      <c r="H88" s="80"/>
-      <c r="I88" s="80"/>
-      <c r="J88" s="80"/>
-      <c r="K88" s="80"/>
-      <c r="L88" s="80"/>
-      <c r="M88" s="81"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="76"/>
+      <c r="K88" s="76"/>
+      <c r="L88" s="76"/>
+      <c r="M88" s="77"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="15" thickBot="1">
       <c r="A89" s="25" t="s">
         <v>442</v>
       </c>
@@ -7101,19 +7106,19 @@
       <c r="E89" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="F89" s="80" t="s">
+      <c r="F89" s="76" t="s">
         <v>442</v>
       </c>
-      <c r="G89" s="80"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="80"/>
-      <c r="L89" s="80"/>
-      <c r="M89" s="81"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="76"/>
+      <c r="M89" s="77"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="15" thickBot="1">
       <c r="A90" s="56" t="s">
         <v>480</v>
       </c>
@@ -7124,7 +7129,7 @@
         <v>444</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="2" t="s">
@@ -7149,16 +7154,16 @@
       </c>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="15" thickBot="1">
       <c r="A91" s="56" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B91" s="58"/>
       <c r="C91" s="2" t="s">
         <v>451</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="2" t="s">
@@ -7181,23 +7186,23 @@
       </c>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A92" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="B92" s="66" t="s">
+        <v>456</v>
+      </c>
+      <c r="C92" s="72" t="s">
+        <v>457</v>
+      </c>
+      <c r="D92" s="32" t="s">
         <v>782</v>
       </c>
-      <c r="B92" s="87" t="s">
-        <v>456</v>
-      </c>
-      <c r="C92" s="79" t="s">
-        <v>457</v>
-      </c>
-      <c r="D92" s="32" t="s">
-        <v>784</v>
-      </c>
       <c r="E92" s="32" t="s">
-        <v>721</v>
-      </c>
-      <c r="F92" s="85" t="s">
+        <v>719</v>
+      </c>
+      <c r="F92" s="73" t="s">
         <v>458</v>
       </c>
       <c r="G92" s="35" t="s">
@@ -7221,13 +7226,13 @@
       </c>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="15" thickBot="1">
       <c r="A93" s="56"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="79"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="72"/>
       <c r="D93" s="32"/>
       <c r="E93" s="32"/>
-      <c r="F93" s="79"/>
+      <c r="F93" s="72"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
       <c r="I93" s="35" t="s">
@@ -7239,19 +7244,19 @@
       <c r="M93" s="35"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="15" thickBot="1">
       <c r="A94" s="56" t="s">
-        <v>501</v>
-      </c>
-      <c r="B94" s="89"/>
+        <v>624</v>
+      </c>
+      <c r="B94" s="68"/>
       <c r="C94" s="26" t="s">
         <v>464</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F94" s="59" t="s">
         <v>465</v>
@@ -7273,38 +7278,38 @@
       </c>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="C95" s="78" t="s">
+      <c r="C95" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="78"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="78"/>
-      <c r="H95" s="78"/>
-      <c r="I95" s="78"/>
-      <c r="J95" s="78"/>
-      <c r="K95" s="78"/>
-      <c r="L95" s="78"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="71"/>
       <c r="M95" s="30"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E96" s="61"/>
       <c r="F96" s="61"/>
@@ -7317,16 +7322,16 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" s="21" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E97" s="61"/>
       <c r="F97" s="61"/>
@@ -7339,16 +7344,16 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="21" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E98" s="61"/>
       <c r="F98" s="61"/>
@@ -7361,16 +7366,16 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E99" s="61"/>
       <c r="F99" s="61"/>
@@ -7383,16 +7388,16 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E100" s="61"/>
       <c r="F100" s="61"/>
@@ -7405,16 +7410,16 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E101" s="61"/>
       <c r="F101" s="61"/>
@@ -7427,11 +7432,11 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="21"/>
       <c r="B102" s="10"/>
       <c r="C102" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>195</v>
@@ -7447,16 +7452,16 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E103" s="61"/>
       <c r="F103" s="61"/>
@@ -7469,16 +7474,16 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="E104" s="61"/>
       <c r="F104" s="61"/>
@@ -7491,16 +7496,16 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="21" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E105" s="61"/>
       <c r="F105" s="61"/>
@@ -7513,16 +7518,16 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E106" s="61"/>
       <c r="F106" s="61"/>
@@ -7535,16 +7540,16 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E107" s="61"/>
       <c r="F107" s="61"/>
@@ -7557,16 +7562,16 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E108" s="61"/>
       <c r="F108" s="61"/>
@@ -7579,11 +7584,11 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" s="21"/>
       <c r="B109" s="10"/>
       <c r="C109" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>205</v>
@@ -7599,16 +7604,16 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" s="21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E110" s="61"/>
       <c r="F110" s="61"/>
@@ -7621,14 +7626,14 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="21"/>
       <c r="B111" s="10"/>
       <c r="C111" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E111" s="61"/>
       <c r="F111" s="61"/>
@@ -7641,13 +7646,13 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>223</v>
@@ -7663,13 +7668,13 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>242</v>
@@ -7685,16 +7690,16 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="E114" s="61"/>
       <c r="F114" s="61"/>
@@ -7707,13 +7712,13 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E115" s="61"/>
       <c r="F115" s="61"/>
@@ -7726,13 +7731,13 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E116" s="61"/>
       <c r="F116" s="61"/>
@@ -7745,13 +7750,13 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E117" s="61"/>
       <c r="F117" s="61"/>
@@ -7764,13 +7769,13 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E118" s="61"/>
       <c r="F118" s="61"/>
@@ -7783,17 +7788,17 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="1"/>
       <c r="B119" s="10"/>
       <c r="C119" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D119" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E119" s="61" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F119" s="61"/>
       <c r="G119" s="1"/>
@@ -7806,19 +7811,19 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="62" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E120" s="62" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F120" s="61"/>
       <c r="G120" s="1"/>
@@ -7831,19 +7836,19 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="62" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E121" s="62" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F121" s="61"/>
       <c r="G121" s="1"/>
@@ -7856,14 +7861,14 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="21"/>
       <c r="B122" s="10"/>
       <c r="C122" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E122" s="61"/>
       <c r="F122" s="61"/>
@@ -7877,14 +7882,14 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="21"/>
       <c r="B123" s="10"/>
       <c r="C123" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E123" s="61"/>
       <c r="F123" s="61"/>
@@ -7898,14 +7903,14 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="21"/>
       <c r="B124" s="10"/>
       <c r="C124" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E124" s="61"/>
       <c r="F124" s="61"/>
@@ -7919,14 +7924,14 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="21"/>
       <c r="B125" s="10"/>
       <c r="C125" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E125" s="61"/>
       <c r="F125" s="61"/>
@@ -7940,14 +7945,14 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="21"/>
       <c r="B126" s="10"/>
       <c r="C126" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E126" s="61"/>
       <c r="F126" s="61"/>
@@ -7961,14 +7966,14 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="21"/>
       <c r="B127" s="10"/>
       <c r="C127" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E127" s="61"/>
       <c r="F127" s="61"/>
@@ -7982,14 +7987,14 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="21"/>
       <c r="B128" s="10"/>
       <c r="C128" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E128" s="61"/>
       <c r="F128" s="61"/>
@@ -8003,14 +8008,14 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="21"/>
       <c r="B129" s="10"/>
       <c r="C129" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E129" s="61"/>
       <c r="F129" s="61"/>
@@ -8024,16 +8029,16 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="92" t="s">
-        <v>780</v>
+    <row r="130" spans="1:15">
+      <c r="A130" s="64" t="s">
+        <v>778</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E130" s="61"/>
       <c r="F130" s="61"/>
@@ -8047,14 +8052,14 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="21"/>
       <c r="B131" s="10"/>
       <c r="C131" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E131" s="61"/>
       <c r="F131" s="61"/>
@@ -8068,14 +8073,14 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="21"/>
       <c r="B132" s="10"/>
       <c r="C132" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E132" s="61"/>
       <c r="F132" s="61"/>
@@ -8089,14 +8094,14 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="21"/>
       <c r="B133" s="10"/>
       <c r="C133" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E133" s="61"/>
       <c r="F133" s="61"/>
@@ -8110,14 +8115,14 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="21"/>
       <c r="B134" s="10"/>
       <c r="C134" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E134" s="61"/>
       <c r="F134" s="61"/>
@@ -8131,16 +8136,16 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="93" t="s">
-        <v>781</v>
+    <row r="135" spans="1:15">
+      <c r="A135" s="65" t="s">
+        <v>779</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E135" s="61"/>
       <c r="F135" s="61"/>
@@ -8154,7 +8159,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="21"/>
       <c r="B136" s="10"/>
       <c r="C136" s="1"/>
@@ -8171,7 +8176,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="21"/>
       <c r="B137" s="10"/>
       <c r="C137" s="1"/>
@@ -8188,7 +8193,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="21"/>
       <c r="B138" s="10"/>
       <c r="C138" s="1"/>
@@ -8205,7 +8210,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="21"/>
       <c r="B139" s="10"/>
       <c r="C139" s="1"/>
@@ -8222,7 +8227,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="21"/>
       <c r="B140" s="10"/>
       <c r="C140" s="1"/>
@@ -8239,7 +8244,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="21"/>
       <c r="B141" s="10"/>
       <c r="C141" s="1"/>
@@ -8256,7 +8261,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="21"/>
       <c r="B142" s="10"/>
       <c r="C142" s="1"/>
@@ -8273,7 +8278,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="21"/>
       <c r="B143" s="10"/>
       <c r="C143" s="1"/>
@@ -8290,7 +8295,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="21"/>
       <c r="B144" s="10"/>
       <c r="C144" s="1"/>
@@ -8307,7 +8312,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="21"/>
       <c r="B145" s="10"/>
       <c r="C145" s="1"/>
@@ -8324,7 +8329,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="21"/>
       <c r="B146" s="10"/>
       <c r="C146" s="1"/>
@@ -8341,7 +8346,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="21"/>
       <c r="B147" s="10"/>
       <c r="C147" s="1"/>
@@ -8358,7 +8363,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="21"/>
       <c r="B148" s="10"/>
       <c r="C148" s="1"/>
@@ -8375,7 +8380,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="21"/>
       <c r="B149" s="10"/>
       <c r="C149" s="1"/>
@@ -8392,7 +8397,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="21"/>
       <c r="B150" s="10"/>
       <c r="C150" s="1"/>
@@ -8409,7 +8414,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="21"/>
       <c r="B151" s="10"/>
       <c r="C151" s="1"/>
@@ -8426,7 +8431,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="21"/>
       <c r="B152" s="10"/>
       <c r="C152" s="1"/>
@@ -8443,7 +8448,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="21"/>
       <c r="B153" s="10"/>
       <c r="C153" s="1"/>
@@ -8460,7 +8465,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="21"/>
       <c r="B154" s="10"/>
       <c r="C154" s="1"/>
@@ -8477,7 +8482,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="21"/>
       <c r="B155" s="10"/>
       <c r="C155" s="1"/>
@@ -8494,7 +8499,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="21"/>
       <c r="B156" s="10"/>
       <c r="C156" s="1"/>
@@ -8511,7 +8516,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="21"/>
       <c r="B157" s="10"/>
       <c r="C157" s="1"/>
@@ -8528,7 +8533,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="21"/>
       <c r="B158" s="10"/>
       <c r="C158" s="1"/>
@@ -8545,7 +8550,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="21"/>
       <c r="B159" s="10"/>
       <c r="C159" s="1"/>
@@ -8562,7 +8567,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="21"/>
       <c r="B160" s="10"/>
       <c r="C160" s="1"/>
@@ -8579,7 +8584,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="21"/>
       <c r="B161" s="10"/>
       <c r="C161" s="1"/>
@@ -8596,7 +8601,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15">
       <c r="A162" s="21"/>
       <c r="B162" s="10"/>
       <c r="C162" s="1"/>
@@ -8613,7 +8618,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15">
       <c r="A163" s="21"/>
       <c r="B163" s="10"/>
       <c r="C163" s="1"/>
@@ -8630,7 +8635,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15">
       <c r="A164" s="21"/>
       <c r="B164" s="10"/>
       <c r="C164" s="1"/>
@@ -8647,7 +8652,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15">
       <c r="A165" s="21"/>
       <c r="B165" s="10"/>
       <c r="C165" s="1"/>
@@ -8664,7 +8669,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15">
       <c r="A166" s="21"/>
       <c r="B166" s="10"/>
       <c r="C166" s="1"/>
@@ -8681,7 +8686,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15">
       <c r="A167" s="21"/>
       <c r="B167" s="10"/>
       <c r="C167" s="1"/>
@@ -8698,7 +8703,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15">
       <c r="A168" s="21"/>
       <c r="B168" s="10"/>
       <c r="C168" s="1"/>
@@ -8715,7 +8720,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15">
       <c r="A169" s="21"/>
       <c r="B169" s="10"/>
       <c r="C169" s="1"/>
@@ -8732,7 +8737,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15">
       <c r="A170" s="21"/>
       <c r="B170" s="10"/>
       <c r="C170" s="1"/>
@@ -8749,7 +8754,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15">
       <c r="A171" s="21"/>
       <c r="B171" s="10"/>
       <c r="C171" s="1"/>
@@ -8766,7 +8771,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15">
       <c r="A172" s="21"/>
       <c r="B172" s="10"/>
       <c r="C172" s="1"/>
@@ -8783,7 +8788,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15">
       <c r="A173" s="21"/>
       <c r="B173" s="10"/>
       <c r="C173" s="1"/>
@@ -8800,7 +8805,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15">
       <c r="A174" s="21"/>
       <c r="B174" s="10"/>
       <c r="C174" s="1"/>
@@ -8817,7 +8822,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15">
       <c r="A175" s="21"/>
       <c r="B175" s="10"/>
       <c r="C175" s="1"/>
@@ -8834,7 +8839,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15">
       <c r="A176" s="21"/>
       <c r="B176" s="10"/>
       <c r="C176" s="1"/>
@@ -8851,7 +8856,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15">
       <c r="A177" s="21"/>
       <c r="B177" s="10"/>
       <c r="C177" s="1"/>
@@ -8868,7 +8873,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15">
       <c r="A178" s="21"/>
       <c r="B178" s="10"/>
       <c r="C178" s="1"/>
@@ -8885,7 +8890,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15">
       <c r="A179" s="21"/>
       <c r="B179" s="10"/>
       <c r="C179" s="1"/>
@@ -8902,7 +8907,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15">
       <c r="A180" s="21"/>
       <c r="B180" s="10"/>
       <c r="C180" s="1"/>
@@ -8919,7 +8924,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15">
       <c r="A181" s="21"/>
       <c r="B181" s="10"/>
       <c r="C181" s="1"/>
@@ -8936,7 +8941,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15">
       <c r="A182" s="21"/>
       <c r="B182" s="10"/>
       <c r="C182" s="1"/>
@@ -8953,7 +8958,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15">
       <c r="A183" s="21"/>
       <c r="B183" s="10"/>
       <c r="C183" s="1"/>
@@ -8970,7 +8975,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15">
       <c r="A184" s="21"/>
       <c r="B184" s="10"/>
       <c r="C184" s="1"/>
@@ -8987,7 +8992,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15">
       <c r="A185" s="21"/>
       <c r="B185" s="10"/>
       <c r="C185" s="1"/>
@@ -9004,7 +9009,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15">
       <c r="A186" s="21"/>
       <c r="B186" s="10"/>
       <c r="C186" s="1"/>
@@ -9021,7 +9026,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15">
       <c r="A187" s="21"/>
       <c r="B187" s="10"/>
       <c r="C187" s="1"/>
@@ -9038,7 +9043,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" s="21"/>
       <c r="B188" s="10"/>
       <c r="C188" s="1"/>
@@ -9055,7 +9060,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" s="21"/>
       <c r="B189" s="10"/>
       <c r="C189" s="1"/>
@@ -9072,7 +9077,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" s="21"/>
       <c r="B190" s="10"/>
       <c r="C190" s="1"/>
@@ -9089,7 +9094,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" s="21"/>
       <c r="B191" s="10"/>
       <c r="C191" s="1"/>
@@ -9106,7 +9111,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" s="21"/>
       <c r="B192" s="10"/>
       <c r="C192" s="1"/>
@@ -9123,7 +9128,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" s="21"/>
       <c r="B193" s="10"/>
       <c r="C193" s="1"/>
@@ -9140,7 +9145,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" s="21"/>
       <c r="B194" s="10"/>
       <c r="C194" s="1"/>
@@ -9157,7 +9162,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="21"/>
       <c r="B195" s="10"/>
       <c r="C195" s="1"/>
@@ -9174,7 +9179,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15">
       <c r="A196" s="21"/>
       <c r="B196" s="10"/>
       <c r="C196" s="1"/>
@@ -9191,7 +9196,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" s="21"/>
       <c r="B197" s="10"/>
       <c r="C197" s="1"/>
@@ -9208,7 +9213,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" s="21"/>
       <c r="B198" s="10"/>
       <c r="C198" s="1"/>
@@ -9225,7 +9230,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" s="21"/>
       <c r="B199" s="10"/>
       <c r="C199" s="1"/>
@@ -9242,7 +9247,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15">
       <c r="A200" s="21"/>
       <c r="B200" s="10"/>
       <c r="C200" s="1"/>
@@ -9259,7 +9264,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15">
       <c r="A201" s="21"/>
       <c r="B201" s="10"/>
       <c r="C201" s="1"/>
@@ -9276,7 +9281,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15">
       <c r="A202" s="21"/>
       <c r="B202" s="10"/>
       <c r="C202" s="1"/>
@@ -9293,7 +9298,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15">
       <c r="A203" s="21"/>
       <c r="B203" s="10"/>
       <c r="C203" s="1"/>
@@ -9310,7 +9315,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15">
       <c r="A204" s="21"/>
       <c r="B204" s="10"/>
       <c r="C204" s="1"/>
@@ -9327,7 +9332,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15">
       <c r="A205" s="21"/>
       <c r="B205" s="10"/>
       <c r="C205" s="1"/>
@@ -9344,7 +9349,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15">
       <c r="A206" s="21"/>
       <c r="B206" s="10"/>
       <c r="C206" s="1"/>
@@ -9361,7 +9366,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15">
       <c r="A207" s="21"/>
       <c r="B207" s="10"/>
       <c r="C207" s="1"/>
@@ -9378,7 +9383,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15">
       <c r="A208" s="21"/>
       <c r="B208" s="10"/>
       <c r="C208" s="1"/>
@@ -9395,7 +9400,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15">
       <c r="A209" s="21"/>
       <c r="B209" s="10"/>
       <c r="C209" s="1"/>
@@ -9412,7 +9417,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15">
       <c r="A210" s="21"/>
       <c r="B210" s="10"/>
       <c r="C210" s="1"/>
@@ -9429,7 +9434,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15">
       <c r="A211" s="21"/>
       <c r="B211" s="10"/>
       <c r="C211" s="1"/>
@@ -9446,7 +9451,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15">
       <c r="A212" s="21"/>
       <c r="B212" s="10"/>
       <c r="C212" s="1"/>
@@ -9463,7 +9468,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15">
       <c r="A213" s="21"/>
       <c r="B213" s="10"/>
       <c r="C213" s="1"/>
@@ -9480,7 +9485,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15">
       <c r="A214" s="21"/>
       <c r="B214" s="10"/>
       <c r="C214" s="1"/>
@@ -9497,7 +9502,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="1"/>
@@ -9514,7 +9519,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="1"/>
@@ -9531,7 +9536,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="1"/>
@@ -9548,7 +9553,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="1"/>
@@ -9565,7 +9570,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="1"/>
@@ -9582,7 +9587,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="1"/>
@@ -9599,7 +9604,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="1"/>
@@ -9616,7 +9621,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="1"/>
@@ -9633,7 +9638,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="1"/>
@@ -9650,7 +9655,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="1"/>
@@ -9667,7 +9672,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="1"/>
@@ -9684,7 +9689,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="1"/>
@@ -9701,7 +9706,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="1"/>
@@ -9718,7 +9723,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="1"/>
@@ -9735,7 +9740,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="1"/>
@@ -9752,7 +9757,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="1"/>
@@ -9769,7 +9774,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="1"/>
@@ -9786,7 +9791,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="1"/>
@@ -9803,7 +9808,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="1"/>
@@ -9820,7 +9825,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="1"/>
@@ -9837,7 +9842,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="1"/>
@@ -9854,7 +9859,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="1"/>
@@ -9871,7 +9876,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="1"/>
@@ -9888,7 +9893,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="1"/>
@@ -9905,7 +9910,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="1"/>
@@ -9922,7 +9927,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="1"/>
@@ -9939,7 +9944,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="1"/>
@@ -9956,7 +9961,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="1"/>
@@ -9973,7 +9978,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="1"/>
@@ -9990,7 +9995,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="1"/>
@@ -10007,7 +10012,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="1"/>
@@ -10024,7 +10029,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="1"/>
@@ -10041,7 +10046,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="1"/>
@@ -10058,7 +10063,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="1"/>
@@ -10075,7 +10080,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="1"/>
@@ -10092,7 +10097,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="1"/>
@@ -10109,7 +10114,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="1"/>
@@ -10126,7 +10131,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="1"/>
@@ -10143,7 +10148,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="1"/>
@@ -10160,7 +10165,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="1"/>
@@ -10177,7 +10182,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="1"/>
@@ -10194,7 +10199,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="1"/>
@@ -10211,7 +10216,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="1"/>
@@ -10228,7 +10233,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="1"/>
@@ -10245,7 +10250,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="1"/>
@@ -10262,7 +10267,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="1"/>
@@ -10279,7 +10284,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="1"/>
@@ -10296,7 +10301,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="1"/>
@@ -10313,7 +10318,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="1"/>
@@ -10330,7 +10335,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="1"/>
@@ -10347,7 +10352,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="1"/>
@@ -10364,7 +10369,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="1"/>
@@ -10381,7 +10386,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="1"/>
@@ -10398,7 +10403,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="1"/>
@@ -10415,7 +10420,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="1"/>
@@ -10432,7 +10437,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="1"/>
@@ -10449,7 +10454,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="1"/>
@@ -10466,7 +10471,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="1"/>
@@ -10483,7 +10488,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="1"/>
@@ -10500,7 +10505,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="1"/>
@@ -10517,7 +10522,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="1"/>
@@ -10534,7 +10539,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15">
       <c r="A276" s="10"/>
       <c r="B276" s="10"/>
       <c r="C276" s="1"/>
@@ -10551,7 +10556,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15">
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="1"/>
@@ -10568,7 +10573,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15">
       <c r="A278" s="10"/>
       <c r="B278" s="10"/>
       <c r="C278" s="1"/>
@@ -10585,7 +10590,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15">
       <c r="A279" s="10"/>
       <c r="B279" s="10"/>
       <c r="C279" s="1"/>
@@ -10602,7 +10607,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15">
       <c r="A280" s="10"/>
       <c r="B280" s="10"/>
       <c r="C280" s="1"/>
@@ -10619,7 +10624,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15">
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="1"/>
@@ -10636,7 +10641,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15">
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="1"/>
@@ -10653,7 +10658,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15">
       <c r="A283" s="10"/>
       <c r="B283" s="10"/>
       <c r="C283" s="1"/>
@@ -10670,7 +10675,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15">
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="1"/>
@@ -10687,7 +10692,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15">
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="1"/>
@@ -10704,7 +10709,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="1"/>
@@ -10721,7 +10726,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15">
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="1"/>
@@ -10738,7 +10743,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15">
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="1"/>
@@ -10755,7 +10760,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15">
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="1"/>
@@ -10772,7 +10777,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15">
       <c r="A290" s="10"/>
       <c r="B290" s="10"/>
       <c r="C290" s="1"/>
@@ -10789,7 +10794,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15">
       <c r="A291" s="10"/>
       <c r="B291" s="10"/>
       <c r="C291" s="1"/>
@@ -10806,7 +10811,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15">
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="1"/>
@@ -10823,7 +10828,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15">
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="1"/>
@@ -10840,7 +10845,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15">
       <c r="A294" s="10"/>
       <c r="B294" s="10"/>
       <c r="C294" s="1"/>
@@ -10857,7 +10862,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15">
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="1"/>
@@ -10874,7 +10879,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15">
       <c r="A296" s="10"/>
       <c r="B296" s="10"/>
       <c r="C296" s="1"/>
@@ -10891,7 +10896,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15">
       <c r="A297" s="10"/>
       <c r="B297" s="10"/>
       <c r="C297" s="1"/>
@@ -10908,7 +10913,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15">
       <c r="A298" s="10"/>
       <c r="B298" s="10"/>
       <c r="C298" s="1"/>
@@ -10925,7 +10930,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15">
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="1"/>
@@ -10942,7 +10947,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15">
       <c r="A300" s="10"/>
       <c r="B300" s="10"/>
       <c r="C300" s="1"/>
@@ -10959,7 +10964,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15">
       <c r="A301" s="10"/>
       <c r="B301" s="10"/>
       <c r="C301" s="1"/>
@@ -10976,7 +10981,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15">
       <c r="A302" s="10"/>
       <c r="B302" s="10"/>
       <c r="C302" s="1"/>
@@ -10993,7 +10998,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15">
       <c r="A303" s="10"/>
       <c r="B303" s="10"/>
       <c r="C303" s="1"/>
@@ -11010,7 +11015,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15">
       <c r="A304" s="10"/>
       <c r="B304" s="10"/>
       <c r="C304" s="1"/>
@@ -11027,7 +11032,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15">
       <c r="A305" s="10"/>
       <c r="B305" s="10"/>
       <c r="C305" s="1"/>
@@ -11044,7 +11049,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15">
       <c r="A306" s="10"/>
       <c r="B306" s="10"/>
       <c r="C306" s="1"/>
@@ -11061,7 +11066,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15">
       <c r="A307" s="10"/>
       <c r="B307" s="10"/>
       <c r="C307" s="1"/>
@@ -11078,7 +11083,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15">
       <c r="A308" s="10"/>
       <c r="B308" s="10"/>
       <c r="C308" s="1"/>
@@ -11095,7 +11100,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15">
       <c r="A309" s="10"/>
       <c r="B309" s="10"/>
       <c r="C309" s="1"/>
@@ -11112,7 +11117,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15">
       <c r="A310" s="10"/>
       <c r="B310" s="10"/>
       <c r="C310" s="1"/>
@@ -11129,7 +11134,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15">
       <c r="A311" s="10"/>
       <c r="B311" s="10"/>
       <c r="C311" s="1"/>
@@ -11146,7 +11151,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15">
       <c r="A312" s="10"/>
       <c r="B312" s="10"/>
       <c r="C312" s="1"/>
@@ -11163,7 +11168,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15">
       <c r="A313" s="10"/>
       <c r="B313" s="10"/>
       <c r="C313" s="1"/>
@@ -11180,7 +11185,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15">
       <c r="A314" s="10"/>
       <c r="B314" s="10"/>
       <c r="C314" s="1"/>
@@ -11197,7 +11202,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15">
       <c r="A315" s="10"/>
       <c r="B315" s="10"/>
       <c r="C315" s="1"/>
@@ -11214,7 +11219,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15">
       <c r="A316" s="10"/>
       <c r="B316" s="10"/>
       <c r="C316" s="1"/>
@@ -11231,7 +11236,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15">
       <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="1"/>
@@ -11248,7 +11253,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15">
       <c r="A318" s="10"/>
       <c r="B318" s="10"/>
       <c r="C318" s="1"/>
@@ -11265,7 +11270,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15">
       <c r="A319" s="10"/>
       <c r="B319" s="10"/>
       <c r="C319" s="1"/>
@@ -11282,7 +11287,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15">
       <c r="A320" s="10"/>
       <c r="B320" s="10"/>
       <c r="C320" s="1"/>
@@ -11299,7 +11304,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15">
       <c r="A321" s="10"/>
       <c r="B321" s="10"/>
       <c r="C321" s="1"/>
@@ -11316,7 +11321,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15">
       <c r="A322" s="10"/>
       <c r="B322" s="10"/>
       <c r="C322" s="1"/>
@@ -11333,7 +11338,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15">
       <c r="A323" s="10"/>
       <c r="B323" s="10"/>
       <c r="C323" s="1"/>
@@ -11350,7 +11355,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15">
       <c r="A324" s="10"/>
       <c r="B324" s="10"/>
       <c r="C324" s="1"/>
@@ -11367,7 +11372,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15">
       <c r="A325" s="10"/>
       <c r="B325" s="10"/>
       <c r="C325" s="1"/>
@@ -11384,7 +11389,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15">
       <c r="A326" s="10"/>
       <c r="B326" s="10"/>
       <c r="C326" s="1"/>
@@ -11401,7 +11406,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15">
       <c r="A327" s="10"/>
       <c r="B327" s="10"/>
       <c r="C327" s="1"/>
@@ -11418,7 +11423,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15">
       <c r="A328" s="10"/>
       <c r="B328" s="10"/>
       <c r="C328" s="1"/>
@@ -11435,7 +11440,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15">
       <c r="A329" s="10"/>
       <c r="B329" s="10"/>
       <c r="C329" s="1"/>
@@ -11452,7 +11457,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15">
       <c r="A330" s="10"/>
       <c r="B330" s="10"/>
       <c r="C330" s="1"/>
@@ -11469,7 +11474,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15">
       <c r="A331" s="10"/>
       <c r="B331" s="10"/>
       <c r="C331" s="1"/>
@@ -11486,7 +11491,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15">
       <c r="A332" s="10"/>
       <c r="B332" s="10"/>
       <c r="C332" s="1"/>
@@ -11503,7 +11508,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15">
       <c r="A333" s="10"/>
       <c r="B333" s="10"/>
       <c r="C333" s="1"/>
@@ -11520,7 +11525,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15">
       <c r="A334" s="10"/>
       <c r="B334" s="10"/>
       <c r="C334" s="1"/>
@@ -11537,7 +11542,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15">
       <c r="A335" s="10"/>
       <c r="B335" s="10"/>
       <c r="C335" s="1"/>
@@ -11554,7 +11559,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15">
       <c r="A336" s="10"/>
       <c r="B336" s="10"/>
       <c r="C336" s="1"/>
@@ -11571,7 +11576,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15">
       <c r="A337" s="10"/>
       <c r="B337" s="10"/>
       <c r="C337" s="1"/>
@@ -11588,7 +11593,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15">
       <c r="A338" s="10"/>
       <c r="B338" s="10"/>
       <c r="C338" s="1"/>
@@ -11605,7 +11610,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15">
       <c r="A339" s="10"/>
       <c r="B339" s="10"/>
       <c r="C339" s="1"/>
@@ -11622,7 +11627,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15">
       <c r="A340" s="10"/>
       <c r="B340" s="10"/>
       <c r="C340" s="1"/>
@@ -11639,7 +11644,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15">
       <c r="A341" s="10"/>
       <c r="B341" s="10"/>
       <c r="C341" s="1"/>
@@ -11656,7 +11661,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15">
       <c r="A342" s="10"/>
       <c r="B342" s="10"/>
       <c r="C342" s="1"/>
@@ -11673,7 +11678,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15">
       <c r="A343" s="10"/>
       <c r="B343" s="10"/>
       <c r="C343" s="1"/>
@@ -11690,7 +11695,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15">
       <c r="A344" s="10"/>
       <c r="B344" s="10"/>
       <c r="C344" s="1"/>
@@ -11707,7 +11712,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15">
       <c r="A345" s="10"/>
       <c r="B345" s="10"/>
       <c r="C345" s="1"/>
@@ -11724,7 +11729,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15">
       <c r="A346" s="10"/>
       <c r="B346" s="10"/>
       <c r="C346" s="1"/>
@@ -11741,7 +11746,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15">
       <c r="A347" s="10"/>
       <c r="B347" s="10"/>
       <c r="C347" s="1"/>
@@ -11758,7 +11763,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15">
       <c r="A348" s="10"/>
       <c r="B348" s="10"/>
       <c r="C348" s="1"/>
@@ -11775,7 +11780,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15">
       <c r="A349" s="10"/>
       <c r="B349" s="10"/>
       <c r="C349" s="1"/>
@@ -11792,7 +11797,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15">
       <c r="A350" s="10"/>
       <c r="B350" s="10"/>
       <c r="C350" s="1"/>
@@ -11809,7 +11814,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15">
       <c r="A351" s="10"/>
       <c r="B351" s="10"/>
       <c r="C351" s="1"/>
@@ -11826,7 +11831,7 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15">
       <c r="A352" s="10"/>
       <c r="B352" s="10"/>
       <c r="C352" s="1"/>
@@ -11843,7 +11848,7 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15">
       <c r="A353" s="10"/>
       <c r="B353" s="10"/>
       <c r="C353" s="1"/>
@@ -11860,7 +11865,7 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15">
       <c r="A354" s="10"/>
       <c r="B354" s="10"/>
       <c r="C354" s="1"/>
@@ -11877,7 +11882,7 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15">
       <c r="A355" s="10"/>
       <c r="B355" s="10"/>
       <c r="C355" s="1"/>
@@ -11894,7 +11899,7 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15">
       <c r="A356" s="10"/>
       <c r="B356" s="10"/>
       <c r="C356" s="1"/>
@@ -11911,7 +11916,7 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15">
       <c r="A357" s="10"/>
       <c r="B357" s="10"/>
       <c r="C357" s="1"/>
@@ -11928,7 +11933,7 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15">
       <c r="A358" s="10"/>
       <c r="B358" s="10"/>
       <c r="C358" s="1"/>
@@ -11945,7 +11950,7 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15">
       <c r="A359" s="10"/>
       <c r="B359" s="10"/>
       <c r="C359" s="1"/>
@@ -11962,7 +11967,7 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15">
       <c r="A360" s="10"/>
       <c r="B360" s="10"/>
       <c r="C360" s="1"/>
@@ -11979,7 +11984,7 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15">
       <c r="A361" s="10"/>
       <c r="B361" s="10"/>
       <c r="C361" s="1"/>
@@ -11996,7 +12001,7 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15">
       <c r="A362" s="10"/>
       <c r="B362" s="10"/>
       <c r="C362" s="1"/>
@@ -12013,7 +12018,7 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15">
       <c r="A363" s="10"/>
       <c r="B363" s="10"/>
       <c r="C363" s="1"/>
@@ -12030,7 +12035,7 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15">
       <c r="A364" s="10"/>
       <c r="B364" s="10"/>
       <c r="C364" s="1"/>
@@ -12047,7 +12052,7 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15">
       <c r="A365" s="10"/>
       <c r="B365" s="10"/>
       <c r="C365" s="1"/>
@@ -12064,7 +12069,7 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15">
       <c r="A366" s="10"/>
       <c r="B366" s="10"/>
       <c r="C366" s="1"/>
@@ -12081,7 +12086,7 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15">
       <c r="A367" s="10"/>
       <c r="B367" s="10"/>
       <c r="C367" s="1"/>
@@ -12098,7 +12103,7 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15">
       <c r="A368" s="10"/>
       <c r="B368" s="10"/>
       <c r="C368" s="1"/>
@@ -12115,7 +12120,7 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15">
       <c r="A369" s="10"/>
       <c r="B369" s="10"/>
       <c r="C369" s="1"/>
@@ -12132,7 +12137,7 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15">
       <c r="A370" s="10"/>
       <c r="B370" s="10"/>
       <c r="C370" s="1"/>
@@ -12149,7 +12154,7 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15">
       <c r="A371" s="10"/>
       <c r="B371" s="10"/>
       <c r="C371" s="1"/>
@@ -12166,7 +12171,7 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15">
       <c r="A372" s="10"/>
       <c r="B372" s="10"/>
       <c r="C372" s="1"/>
@@ -12183,7 +12188,7 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15">
       <c r="A373" s="10"/>
       <c r="B373" s="10"/>
       <c r="C373" s="1"/>
@@ -12200,7 +12205,7 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15">
       <c r="A374" s="10"/>
       <c r="B374" s="10"/>
       <c r="C374" s="1"/>
@@ -12217,7 +12222,7 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15">
       <c r="A375" s="10"/>
       <c r="B375" s="10"/>
       <c r="C375" s="1"/>
@@ -12234,7 +12239,7 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15">
       <c r="A376" s="10"/>
       <c r="B376" s="10"/>
       <c r="C376" s="1"/>
@@ -12251,7 +12256,7 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15">
       <c r="A377" s="10"/>
       <c r="B377" s="10"/>
       <c r="C377" s="1"/>
@@ -12268,7 +12273,7 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15">
       <c r="A378" s="10"/>
       <c r="B378" s="10"/>
       <c r="C378" s="1"/>
@@ -12285,7 +12290,7 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15">
       <c r="A379" s="10"/>
       <c r="B379" s="10"/>
       <c r="C379" s="1"/>
@@ -12302,7 +12307,7 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15">
       <c r="A380" s="10"/>
       <c r="B380" s="10"/>
       <c r="C380" s="1"/>
@@ -12319,7 +12324,7 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15">
       <c r="A381" s="10"/>
       <c r="B381" s="10"/>
       <c r="C381" s="1"/>
@@ -12336,7 +12341,7 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15">
       <c r="A382" s="10"/>
       <c r="B382" s="10"/>
       <c r="C382" s="1"/>
@@ -12353,7 +12358,7 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15">
       <c r="A383" s="10"/>
       <c r="B383" s="10"/>
       <c r="C383" s="1"/>
@@ -12370,7 +12375,7 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15">
       <c r="A384" s="10"/>
       <c r="B384" s="10"/>
       <c r="C384" s="1"/>
@@ -12387,7 +12392,7 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15">
       <c r="A385" s="10"/>
       <c r="B385" s="10"/>
       <c r="C385" s="1"/>
@@ -12404,7 +12409,7 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15">
       <c r="A386" s="10"/>
       <c r="B386" s="10"/>
       <c r="C386" s="1"/>
@@ -12421,7 +12426,7 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15">
       <c r="A387" s="10"/>
       <c r="B387" s="10"/>
       <c r="C387" s="1"/>
@@ -12438,7 +12443,7 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15">
       <c r="A388" s="10"/>
       <c r="B388" s="10"/>
       <c r="C388" s="1"/>
@@ -12455,7 +12460,7 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15">
       <c r="A389" s="10"/>
       <c r="B389" s="10"/>
       <c r="C389" s="1"/>
@@ -12472,7 +12477,7 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15">
       <c r="A390" s="10"/>
       <c r="B390" s="10"/>
       <c r="C390" s="1"/>
@@ -12489,7 +12494,7 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15">
       <c r="A391" s="10"/>
       <c r="B391" s="10"/>
       <c r="C391" s="1"/>
@@ -12506,7 +12511,7 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15">
       <c r="A392" s="10"/>
       <c r="B392" s="10"/>
       <c r="C392" s="1"/>
@@ -12523,7 +12528,7 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15">
       <c r="A393" s="10"/>
       <c r="B393" s="10"/>
       <c r="C393" s="1"/>
@@ -12540,7 +12545,7 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15">
       <c r="A394" s="10"/>
       <c r="B394" s="10"/>
       <c r="C394" s="1"/>
@@ -12557,7 +12562,7 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15">
       <c r="A395" s="10"/>
       <c r="B395" s="10"/>
       <c r="C395" s="1"/>
@@ -12574,7 +12579,7 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15">
       <c r="A396" s="10"/>
       <c r="B396" s="10"/>
       <c r="C396" s="1"/>
@@ -12591,7 +12596,7 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15">
       <c r="A397" s="10"/>
       <c r="B397" s="10"/>
       <c r="C397" s="1"/>
@@ -12608,7 +12613,7 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15">
       <c r="A398" s="10"/>
       <c r="B398" s="10"/>
       <c r="C398" s="1"/>
@@ -12625,7 +12630,7 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15">
       <c r="A399" s="10"/>
       <c r="B399" s="10"/>
       <c r="C399" s="1"/>
@@ -12642,7 +12647,7 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15">
       <c r="A400" s="10"/>
       <c r="B400" s="10"/>
       <c r="C400" s="1"/>
@@ -12659,7 +12664,7 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15">
       <c r="A401" s="10"/>
       <c r="B401" s="10"/>
       <c r="C401" s="1"/>
@@ -12676,7 +12681,7 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15">
       <c r="A402" s="10"/>
       <c r="B402" s="10"/>
       <c r="C402" s="1"/>
@@ -12693,7 +12698,7 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15">
       <c r="A403" s="10"/>
       <c r="B403" s="10"/>
       <c r="C403" s="1"/>
@@ -12710,7 +12715,7 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15">
       <c r="A404" s="10"/>
       <c r="B404" s="10"/>
       <c r="C404" s="1"/>
@@ -12727,7 +12732,7 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15">
       <c r="A405" s="10"/>
       <c r="B405" s="10"/>
       <c r="C405" s="1"/>
@@ -12744,7 +12749,7 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15">
       <c r="A406" s="10"/>
       <c r="B406" s="10"/>
       <c r="C406" s="1"/>
@@ -12761,7 +12766,7 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15">
       <c r="A407" s="10"/>
       <c r="B407" s="10"/>
       <c r="C407" s="1"/>
@@ -12778,7 +12783,7 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15">
       <c r="A408" s="10"/>
       <c r="B408" s="10"/>
       <c r="C408" s="1"/>
@@ -12795,7 +12800,7 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15">
       <c r="A409" s="10"/>
       <c r="B409" s="10"/>
       <c r="C409" s="1"/>
@@ -12812,7 +12817,7 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15">
       <c r="A410" s="10"/>
       <c r="B410" s="10"/>
       <c r="C410" s="1"/>
@@ -12829,7 +12834,7 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15">
       <c r="A411" s="10"/>
       <c r="B411" s="10"/>
       <c r="C411" s="1"/>
@@ -12846,7 +12851,7 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15">
       <c r="A412" s="10"/>
       <c r="B412" s="10"/>
       <c r="C412" s="1"/>
@@ -12863,7 +12868,7 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15">
       <c r="A413" s="10"/>
       <c r="B413" s="10"/>
       <c r="C413" s="1"/>
@@ -12880,7 +12885,7 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15">
       <c r="A414" s="10"/>
       <c r="B414" s="10"/>
       <c r="C414" s="1"/>
@@ -12897,7 +12902,7 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15">
       <c r="A415" s="10"/>
       <c r="B415" s="10"/>
       <c r="C415" s="1"/>
@@ -12914,7 +12919,7 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15">
       <c r="A416" s="10"/>
       <c r="B416" s="10"/>
       <c r="C416" s="1"/>
@@ -12931,7 +12936,7 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15">
       <c r="A417" s="10"/>
       <c r="B417" s="10"/>
       <c r="C417" s="1"/>
@@ -12948,7 +12953,7 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15">
       <c r="A418" s="10"/>
       <c r="B418" s="10"/>
       <c r="C418" s="1"/>
@@ -12965,7 +12970,7 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15">
       <c r="A419" s="10"/>
       <c r="B419" s="10"/>
       <c r="C419" s="1"/>
@@ -12982,7 +12987,7 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15">
       <c r="A420" s="10"/>
       <c r="B420" s="10"/>
       <c r="C420" s="1"/>
@@ -12999,7 +13004,7 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15">
       <c r="A421" s="10"/>
       <c r="B421" s="10"/>
       <c r="C421" s="1"/>
@@ -13016,7 +13021,7 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15">
       <c r="A422" s="10"/>
       <c r="B422" s="10"/>
       <c r="C422" s="1"/>
@@ -13033,7 +13038,7 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15">
       <c r="A423" s="10"/>
       <c r="B423" s="10"/>
       <c r="C423" s="1"/>
@@ -13050,7 +13055,7 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15">
       <c r="A424" s="10"/>
       <c r="B424" s="10"/>
       <c r="C424" s="1"/>
@@ -13067,7 +13072,7 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15">
       <c r="A425" s="10"/>
       <c r="B425" s="10"/>
       <c r="C425" s="1"/>
@@ -13084,7 +13089,7 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15">
       <c r="A426" s="10"/>
       <c r="B426" s="10"/>
       <c r="C426" s="1"/>
@@ -13101,7 +13106,7 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15">
       <c r="A427" s="10"/>
       <c r="B427" s="10"/>
       <c r="C427" s="1"/>
@@ -13118,7 +13123,7 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15">
       <c r="A428" s="10"/>
       <c r="B428" s="10"/>
       <c r="C428" s="1"/>
@@ -13135,7 +13140,7 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15">
       <c r="A429" s="10"/>
       <c r="B429" s="10"/>
       <c r="C429" s="1"/>
@@ -13152,7 +13157,7 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15">
       <c r="A430" s="10"/>
       <c r="B430" s="10"/>
       <c r="C430" s="1"/>
@@ -13169,7 +13174,7 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15">
       <c r="A431" s="10"/>
       <c r="B431" s="10"/>
       <c r="C431" s="1"/>
@@ -13186,7 +13191,7 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15">
       <c r="A432" s="10"/>
       <c r="B432" s="10"/>
       <c r="C432" s="1"/>
@@ -13203,7 +13208,7 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15">
       <c r="A433" s="10"/>
       <c r="B433" s="10"/>
       <c r="C433" s="1"/>
@@ -13220,7 +13225,7 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15">
       <c r="A434" s="10"/>
       <c r="B434" s="10"/>
       <c r="C434" s="1"/>
@@ -13237,7 +13242,7 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15">
       <c r="A435" s="10"/>
       <c r="B435" s="10"/>
       <c r="C435" s="1"/>
@@ -13254,7 +13259,7 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15">
       <c r="A436" s="10"/>
       <c r="B436" s="10"/>
       <c r="C436" s="1"/>
@@ -13271,7 +13276,7 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15">
       <c r="A437" s="10"/>
       <c r="B437" s="10"/>
       <c r="C437" s="1"/>
@@ -13288,7 +13293,7 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15">
       <c r="A438" s="10"/>
       <c r="B438" s="10"/>
       <c r="C438" s="1"/>
@@ -13305,7 +13310,7 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15">
       <c r="A439" s="10"/>
       <c r="B439" s="10"/>
       <c r="C439" s="1"/>
@@ -13322,7 +13327,7 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15">
       <c r="A440" s="10"/>
       <c r="B440" s="10"/>
       <c r="C440" s="1"/>
@@ -13339,7 +13344,7 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15">
       <c r="A441" s="10"/>
       <c r="B441" s="10"/>
       <c r="C441" s="1"/>
@@ -13356,7 +13361,7 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15">
       <c r="A442" s="10"/>
       <c r="B442" s="10"/>
       <c r="C442" s="1"/>
@@ -13373,7 +13378,7 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15">
       <c r="A443" s="10"/>
       <c r="B443" s="10"/>
       <c r="C443" s="1"/>
@@ -13390,7 +13395,7 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15">
       <c r="A444" s="10"/>
       <c r="B444" s="10"/>
       <c r="C444" s="1"/>
@@ -13407,7 +13412,7 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15">
       <c r="A445" s="10"/>
       <c r="B445" s="10"/>
       <c r="C445" s="1"/>
@@ -13424,7 +13429,7 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15">
       <c r="A446" s="10"/>
       <c r="B446" s="10"/>
       <c r="C446" s="1"/>
@@ -13441,7 +13446,7 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15">
       <c r="A447" s="10"/>
       <c r="B447" s="10"/>
       <c r="C447" s="1"/>
@@ -13458,7 +13463,7 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15">
       <c r="A448" s="10"/>
       <c r="B448" s="10"/>
       <c r="C448" s="1"/>
@@ -13475,7 +13480,7 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15">
       <c r="A449" s="10"/>
       <c r="B449" s="10"/>
       <c r="C449" s="1"/>
@@ -13492,7 +13497,7 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15">
       <c r="A450" s="10"/>
       <c r="B450" s="10"/>
       <c r="C450" s="1"/>
@@ -13509,7 +13514,7 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15">
       <c r="A451" s="10"/>
       <c r="B451" s="10"/>
       <c r="C451" s="1"/>
@@ -13526,7 +13531,7 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15">
       <c r="A452" s="10"/>
       <c r="B452" s="10"/>
       <c r="C452" s="1"/>
@@ -13543,7 +13548,7 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15">
       <c r="A453" s="10"/>
       <c r="B453" s="10"/>
       <c r="C453" s="1"/>
@@ -13560,7 +13565,7 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15">
       <c r="A454" s="10"/>
       <c r="B454" s="10"/>
       <c r="C454" s="1"/>
@@ -13577,7 +13582,7 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15">
       <c r="A455" s="10"/>
       <c r="B455" s="10"/>
       <c r="C455" s="1"/>
@@ -13594,7 +13599,7 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15">
       <c r="A456" s="10"/>
       <c r="B456" s="10"/>
       <c r="C456" s="1"/>
@@ -13611,7 +13616,7 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15">
       <c r="A457" s="10"/>
       <c r="B457" s="10"/>
       <c r="C457" s="1"/>
@@ -13628,7 +13633,7 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15">
       <c r="A458" s="10"/>
       <c r="B458" s="10"/>
       <c r="C458" s="1"/>
@@ -13645,7 +13650,7 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15">
       <c r="A459" s="10"/>
       <c r="B459" s="10"/>
       <c r="C459" s="1"/>
@@ -13662,7 +13667,7 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15">
       <c r="A460" s="10"/>
       <c r="B460" s="10"/>
       <c r="C460" s="1"/>
@@ -13679,7 +13684,7 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15">
       <c r="A461" s="10"/>
       <c r="B461" s="10"/>
       <c r="C461" s="1"/>
@@ -13696,7 +13701,7 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15">
       <c r="A462" s="10"/>
       <c r="B462" s="10"/>
       <c r="C462" s="1"/>
@@ -13713,7 +13718,7 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15">
       <c r="A463" s="10"/>
       <c r="B463" s="10"/>
       <c r="C463" s="1"/>
@@ -13730,7 +13735,7 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15">
       <c r="A464" s="10"/>
       <c r="B464" s="10"/>
       <c r="C464" s="1"/>
@@ -13747,7 +13752,7 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15">
       <c r="A465" s="10"/>
       <c r="B465" s="10"/>
       <c r="C465" s="1"/>
@@ -13764,7 +13769,7 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15">
       <c r="A466" s="10"/>
       <c r="B466" s="10"/>
       <c r="C466" s="1"/>
@@ -13781,7 +13786,7 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15">
       <c r="A467" s="10"/>
       <c r="B467" s="10"/>
       <c r="C467" s="1"/>
@@ -13798,7 +13803,7 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15">
       <c r="A468" s="10"/>
       <c r="B468" s="10"/>
       <c r="C468" s="1"/>
@@ -13815,7 +13820,7 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15">
       <c r="A469" s="10"/>
       <c r="B469" s="10"/>
       <c r="C469" s="1"/>
@@ -13832,7 +13837,7 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15">
       <c r="A470" s="10"/>
       <c r="B470" s="10"/>
       <c r="C470" s="1"/>
@@ -13849,7 +13854,7 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15">
       <c r="A471" s="10"/>
       <c r="B471" s="10"/>
       <c r="C471" s="1"/>
@@ -13866,7 +13871,7 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15">
       <c r="A472" s="10"/>
       <c r="B472" s="10"/>
       <c r="C472" s="1"/>
@@ -13883,7 +13888,7 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15">
       <c r="A473" s="10"/>
       <c r="B473" s="10"/>
       <c r="C473" s="1"/>
@@ -13900,7 +13905,7 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15">
       <c r="A474" s="10"/>
       <c r="B474" s="10"/>
       <c r="C474" s="1"/>
@@ -13917,7 +13922,7 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15">
       <c r="A475" s="10"/>
       <c r="B475" s="10"/>
       <c r="C475" s="1"/>
@@ -13934,7 +13939,7 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15">
       <c r="A476" s="10"/>
       <c r="B476" s="10"/>
       <c r="C476" s="1"/>
@@ -13951,7 +13956,7 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15">
       <c r="A477" s="10"/>
       <c r="B477" s="10"/>
       <c r="C477" s="1"/>
@@ -13968,7 +13973,7 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15">
       <c r="A478" s="10"/>
       <c r="B478" s="10"/>
       <c r="C478" s="1"/>
@@ -13985,7 +13990,7 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15">
       <c r="A479" s="10"/>
       <c r="B479" s="10"/>
       <c r="C479" s="1"/>
@@ -14002,7 +14007,7 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15">
       <c r="A480" s="10"/>
       <c r="B480" s="10"/>
       <c r="C480" s="1"/>
@@ -14019,7 +14024,7 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15">
       <c r="A481" s="10"/>
       <c r="B481" s="10"/>
       <c r="C481" s="1"/>
@@ -14036,7 +14041,7 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15">
       <c r="A482" s="10"/>
       <c r="B482" s="10"/>
       <c r="C482" s="1"/>
@@ -14053,7 +14058,7 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15">
       <c r="A483" s="10"/>
       <c r="B483" s="10"/>
       <c r="C483" s="1"/>
@@ -14070,7 +14075,7 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15">
       <c r="A484" s="10"/>
       <c r="B484" s="10"/>
       <c r="C484" s="1"/>
@@ -14087,7 +14092,7 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15">
       <c r="A485" s="10"/>
       <c r="B485" s="10"/>
       <c r="C485" s="1"/>
@@ -14104,7 +14109,7 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15">
       <c r="A486" s="10"/>
       <c r="B486" s="10"/>
       <c r="C486" s="1"/>
@@ -14121,7 +14126,7 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15">
       <c r="A487" s="10"/>
       <c r="B487" s="10"/>
       <c r="C487" s="1"/>
@@ -14138,7 +14143,7 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15">
       <c r="A488" s="10"/>
       <c r="B488" s="10"/>
       <c r="C488" s="1"/>
@@ -14155,7 +14160,7 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15">
       <c r="A489" s="10"/>
       <c r="B489" s="10"/>
       <c r="C489" s="1"/>
@@ -14172,7 +14177,7 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15">
       <c r="A490" s="10"/>
       <c r="B490" s="10"/>
       <c r="C490" s="1"/>
@@ -14189,7 +14194,7 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15">
       <c r="A491" s="10"/>
       <c r="B491" s="10"/>
       <c r="C491" s="1"/>
@@ -14206,7 +14211,7 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15">
       <c r="A492" s="10"/>
       <c r="B492" s="10"/>
       <c r="C492" s="1"/>
@@ -14223,7 +14228,7 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15">
       <c r="A493" s="10"/>
       <c r="B493" s="10"/>
       <c r="C493" s="1"/>
@@ -14240,7 +14245,7 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15">
       <c r="A494" s="10"/>
       <c r="B494" s="10"/>
       <c r="C494" s="1"/>
@@ -14257,7 +14262,7 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15">
       <c r="A495" s="10"/>
       <c r="B495" s="10"/>
       <c r="C495" s="1"/>
@@ -14274,7 +14279,7 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15">
       <c r="A496" s="10"/>
       <c r="B496" s="10"/>
       <c r="C496" s="1"/>
@@ -14291,7 +14296,7 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15">
       <c r="A497" s="10"/>
       <c r="B497" s="10"/>
       <c r="C497" s="1"/>
@@ -14308,7 +14313,7 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15">
       <c r="A498" s="10"/>
       <c r="B498" s="10"/>
       <c r="C498" s="1"/>
@@ -14325,7 +14330,7 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15">
       <c r="A499" s="10"/>
       <c r="B499" s="10"/>
       <c r="C499" s="1"/>
@@ -14342,7 +14347,7 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15">
       <c r="A500" s="10"/>
       <c r="B500" s="10"/>
       <c r="C500" s="1"/>
@@ -14359,7 +14364,7 @@
       <c r="N500" s="1"/>
       <c r="O500" s="1"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15">
       <c r="A501" s="10"/>
       <c r="B501" s="10"/>
       <c r="C501" s="1"/>
@@ -14376,7 +14381,7 @@
       <c r="N501" s="1"/>
       <c r="O501" s="1"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15">
       <c r="A502" s="10"/>
       <c r="B502" s="10"/>
       <c r="C502" s="1"/>
@@ -14393,7 +14398,7 @@
       <c r="N502" s="1"/>
       <c r="O502" s="1"/>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15">
       <c r="A503" s="10"/>
       <c r="B503" s="10"/>
       <c r="C503" s="1"/>
@@ -14410,7 +14415,7 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15">
       <c r="A504" s="10"/>
       <c r="B504" s="10"/>
       <c r="C504" s="1"/>
@@ -14427,7 +14432,7 @@
       <c r="N504" s="1"/>
       <c r="O504" s="1"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15">
       <c r="A505" s="10"/>
       <c r="B505" s="10"/>
       <c r="C505" s="1"/>
@@ -14444,7 +14449,7 @@
       <c r="N505" s="1"/>
       <c r="O505" s="1"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15">
       <c r="A506" s="10"/>
       <c r="B506" s="10"/>
       <c r="C506" s="1"/>
@@ -14461,7 +14466,7 @@
       <c r="N506" s="1"/>
       <c r="O506" s="1"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15">
       <c r="A507" s="10"/>
       <c r="B507" s="10"/>
       <c r="C507" s="1"/>
@@ -14478,7 +14483,7 @@
       <c r="N507" s="1"/>
       <c r="O507" s="1"/>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15">
       <c r="A508" s="10"/>
       <c r="B508" s="10"/>
       <c r="C508" s="1"/>
@@ -14495,7 +14500,7 @@
       <c r="N508" s="1"/>
       <c r="O508" s="1"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15">
       <c r="A509" s="10"/>
       <c r="B509" s="10"/>
       <c r="C509" s="1"/>
@@ -14512,7 +14517,7 @@
       <c r="N509" s="1"/>
       <c r="O509" s="1"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15">
       <c r="A510" s="10"/>
       <c r="B510" s="10"/>
       <c r="C510" s="1"/>
@@ -14529,7 +14534,7 @@
       <c r="N510" s="1"/>
       <c r="O510" s="1"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15">
       <c r="A511" s="10"/>
       <c r="B511" s="10"/>
       <c r="C511" s="1"/>
@@ -14546,7 +14551,7 @@
       <c r="N511" s="1"/>
       <c r="O511" s="1"/>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15">
       <c r="A512" s="10"/>
       <c r="B512" s="10"/>
       <c r="C512" s="1"/>
@@ -14563,7 +14568,7 @@
       <c r="N512" s="1"/>
       <c r="O512" s="1"/>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15">
       <c r="A513" s="10"/>
       <c r="B513" s="10"/>
       <c r="C513" s="1"/>
@@ -14580,7 +14585,7 @@
       <c r="N513" s="1"/>
       <c r="O513" s="1"/>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15">
       <c r="A514" s="10"/>
       <c r="B514" s="10"/>
       <c r="C514" s="1"/>
@@ -14597,7 +14602,7 @@
       <c r="N514" s="1"/>
       <c r="O514" s="1"/>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15">
       <c r="A515" s="10"/>
       <c r="B515" s="10"/>
       <c r="C515" s="1"/>
@@ -14614,7 +14619,7 @@
       <c r="N515" s="1"/>
       <c r="O515" s="1"/>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15">
       <c r="A516" s="10"/>
       <c r="B516" s="10"/>
       <c r="C516" s="1"/>
@@ -14631,7 +14636,7 @@
       <c r="N516" s="1"/>
       <c r="O516" s="1"/>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15">
       <c r="A517" s="10"/>
       <c r="B517" s="10"/>
       <c r="C517" s="1"/>
@@ -14648,7 +14653,7 @@
       <c r="N517" s="1"/>
       <c r="O517" s="1"/>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15">
       <c r="A518" s="10"/>
       <c r="B518" s="10"/>
       <c r="C518" s="1"/>
@@ -14665,7 +14670,7 @@
       <c r="N518" s="1"/>
       <c r="O518" s="1"/>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15">
       <c r="A519" s="10"/>
       <c r="B519" s="10"/>
       <c r="C519" s="1"/>
@@ -14682,7 +14687,7 @@
       <c r="N519" s="1"/>
       <c r="O519" s="1"/>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15">
       <c r="A520" s="10"/>
       <c r="B520" s="10"/>
       <c r="C520" s="1"/>
@@ -14699,7 +14704,7 @@
       <c r="N520" s="1"/>
       <c r="O520" s="1"/>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15">
       <c r="A521" s="10"/>
       <c r="B521" s="10"/>
       <c r="C521" s="1"/>
@@ -14716,7 +14721,7 @@
       <c r="N521" s="1"/>
       <c r="O521" s="1"/>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15">
       <c r="A522" s="10"/>
       <c r="B522" s="10"/>
       <c r="C522" s="1"/>
@@ -14733,7 +14738,7 @@
       <c r="N522" s="1"/>
       <c r="O522" s="1"/>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15">
       <c r="A523" s="10"/>
       <c r="B523" s="10"/>
       <c r="C523" s="1"/>
@@ -14750,7 +14755,7 @@
       <c r="N523" s="1"/>
       <c r="O523" s="1"/>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15">
       <c r="A524" s="10"/>
       <c r="B524" s="10"/>
       <c r="C524" s="1"/>
@@ -14767,7 +14772,7 @@
       <c r="N524" s="1"/>
       <c r="O524" s="1"/>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15">
       <c r="A525" s="10"/>
       <c r="B525" s="10"/>
       <c r="C525" s="1"/>
@@ -14784,7 +14789,7 @@
       <c r="N525" s="1"/>
       <c r="O525" s="1"/>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15">
       <c r="A526" s="10"/>
       <c r="B526" s="10"/>
       <c r="C526" s="1"/>
@@ -14801,7 +14806,7 @@
       <c r="N526" s="1"/>
       <c r="O526" s="1"/>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15">
       <c r="A527" s="10"/>
       <c r="B527" s="10"/>
       <c r="C527" s="1"/>
@@ -14818,7 +14823,7 @@
       <c r="N527" s="1"/>
       <c r="O527" s="1"/>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15">
       <c r="A528" s="10"/>
       <c r="B528" s="10"/>
       <c r="C528" s="1"/>
@@ -14835,7 +14840,7 @@
       <c r="N528" s="1"/>
       <c r="O528" s="1"/>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15">
       <c r="A529" s="10"/>
       <c r="B529" s="10"/>
       <c r="C529" s="1"/>
@@ -14852,7 +14857,7 @@
       <c r="N529" s="1"/>
       <c r="O529" s="1"/>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15">
       <c r="A530" s="10"/>
       <c r="B530" s="10"/>
       <c r="C530" s="1"/>
@@ -14869,7 +14874,7 @@
       <c r="N530" s="1"/>
       <c r="O530" s="1"/>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15">
       <c r="A531" s="10"/>
       <c r="B531" s="10"/>
       <c r="C531" s="1"/>
@@ -14886,7 +14891,7 @@
       <c r="N531" s="1"/>
       <c r="O531" s="1"/>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15">
       <c r="A532" s="10"/>
       <c r="B532" s="10"/>
       <c r="C532" s="1"/>
@@ -14903,7 +14908,7 @@
       <c r="N532" s="1"/>
       <c r="O532" s="1"/>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15">
       <c r="A533" s="10"/>
       <c r="B533" s="10"/>
       <c r="C533" s="1"/>
@@ -14920,7 +14925,7 @@
       <c r="N533" s="1"/>
       <c r="O533" s="1"/>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15">
       <c r="A534" s="10"/>
       <c r="B534" s="10"/>
       <c r="C534" s="1"/>
@@ -14937,7 +14942,7 @@
       <c r="N534" s="1"/>
       <c r="O534" s="1"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15">
       <c r="A535" s="10"/>
       <c r="B535" s="10"/>
       <c r="C535" s="1"/>
@@ -14954,7 +14959,7 @@
       <c r="N535" s="1"/>
       <c r="O535" s="1"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15">
       <c r="A536" s="10"/>
       <c r="B536" s="10"/>
       <c r="C536" s="1"/>
@@ -14971,7 +14976,7 @@
       <c r="N536" s="1"/>
       <c r="O536" s="1"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15">
       <c r="A537" s="10"/>
       <c r="B537" s="10"/>
       <c r="C537" s="1"/>
@@ -14988,7 +14993,7 @@
       <c r="N537" s="1"/>
       <c r="O537" s="1"/>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15">
       <c r="A538" s="10"/>
       <c r="B538" s="10"/>
       <c r="C538" s="1"/>
@@ -15005,7 +15010,7 @@
       <c r="N538" s="1"/>
       <c r="O538" s="1"/>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15">
       <c r="A539" s="10"/>
       <c r="B539" s="10"/>
       <c r="C539" s="1"/>
@@ -15022,7 +15027,7 @@
       <c r="N539" s="1"/>
       <c r="O539" s="1"/>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15">
       <c r="A540" s="10"/>
       <c r="B540" s="10"/>
       <c r="C540" s="1"/>
@@ -15039,7 +15044,7 @@
       <c r="N540" s="1"/>
       <c r="O540" s="1"/>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15">
       <c r="A541" s="10"/>
       <c r="B541" s="10"/>
       <c r="C541" s="1"/>
@@ -15056,7 +15061,7 @@
       <c r="N541" s="1"/>
       <c r="O541" s="1"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15">
       <c r="A542" s="10"/>
       <c r="B542" s="10"/>
       <c r="C542" s="1"/>
@@ -15073,7 +15078,7 @@
       <c r="N542" s="1"/>
       <c r="O542" s="1"/>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15">
       <c r="A543" s="10"/>
       <c r="B543" s="10"/>
       <c r="C543" s="1"/>
@@ -15090,7 +15095,7 @@
       <c r="N543" s="1"/>
       <c r="O543" s="1"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15">
       <c r="A544" s="10"/>
       <c r="B544" s="10"/>
       <c r="C544" s="1"/>
@@ -15107,7 +15112,7 @@
       <c r="N544" s="1"/>
       <c r="O544" s="1"/>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15">
       <c r="A545" s="10"/>
       <c r="B545" s="10"/>
       <c r="C545" s="1"/>
@@ -15124,7 +15129,7 @@
       <c r="N545" s="1"/>
       <c r="O545" s="1"/>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15">
       <c r="A546" s="10"/>
       <c r="B546" s="10"/>
       <c r="C546" s="1"/>
@@ -15141,7 +15146,7 @@
       <c r="N546" s="1"/>
       <c r="O546" s="1"/>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15">
       <c r="A547" s="10"/>
       <c r="B547" s="10"/>
       <c r="C547" s="1"/>
@@ -15158,7 +15163,7 @@
       <c r="N547" s="1"/>
       <c r="O547" s="1"/>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15">
       <c r="A548" s="10"/>
       <c r="B548" s="10"/>
       <c r="C548" s="1"/>
@@ -15175,7 +15180,7 @@
       <c r="N548" s="1"/>
       <c r="O548" s="1"/>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15">
       <c r="A549" s="10"/>
       <c r="B549" s="10"/>
       <c r="C549" s="1"/>
@@ -15192,7 +15197,7 @@
       <c r="N549" s="1"/>
       <c r="O549" s="1"/>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15">
       <c r="A550" s="10"/>
       <c r="B550" s="10"/>
       <c r="C550" s="1"/>
@@ -15209,7 +15214,7 @@
       <c r="N550" s="1"/>
       <c r="O550" s="1"/>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15">
       <c r="A551" s="10"/>
       <c r="B551" s="10"/>
       <c r="C551" s="1"/>
@@ -15226,7 +15231,7 @@
       <c r="N551" s="1"/>
       <c r="O551" s="1"/>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15">
       <c r="A552" s="10"/>
       <c r="B552" s="10"/>
       <c r="C552" s="1"/>
@@ -15243,7 +15248,7 @@
       <c r="N552" s="1"/>
       <c r="O552" s="1"/>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15">
       <c r="A553" s="10"/>
       <c r="B553" s="10"/>
       <c r="C553" s="1"/>
@@ -15260,7 +15265,7 @@
       <c r="N553" s="1"/>
       <c r="O553" s="1"/>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15">
       <c r="A554" s="10"/>
       <c r="B554" s="10"/>
       <c r="C554" s="1"/>
@@ -15277,7 +15282,7 @@
       <c r="N554" s="1"/>
       <c r="O554" s="1"/>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15">
       <c r="A555" s="10"/>
       <c r="B555" s="10"/>
       <c r="C555" s="1"/>
@@ -15294,7 +15299,7 @@
       <c r="N555" s="1"/>
       <c r="O555" s="1"/>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15">
       <c r="A556" s="10"/>
       <c r="B556" s="10"/>
       <c r="C556" s="1"/>
@@ -15311,7 +15316,7 @@
       <c r="N556" s="1"/>
       <c r="O556" s="1"/>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15">
       <c r="A557" s="10"/>
       <c r="B557" s="10"/>
       <c r="C557" s="1"/>
@@ -15328,7 +15333,7 @@
       <c r="N557" s="1"/>
       <c r="O557" s="1"/>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15">
       <c r="A558" s="10"/>
       <c r="B558" s="10"/>
       <c r="C558" s="1"/>
@@ -15345,7 +15350,7 @@
       <c r="N558" s="1"/>
       <c r="O558" s="1"/>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15">
       <c r="A559" s="10"/>
       <c r="B559" s="10"/>
       <c r="C559" s="1"/>
@@ -15362,7 +15367,7 @@
       <c r="N559" s="1"/>
       <c r="O559" s="1"/>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15">
       <c r="A560" s="10"/>
       <c r="B560" s="10"/>
       <c r="C560" s="1"/>
@@ -15379,7 +15384,7 @@
       <c r="N560" s="1"/>
       <c r="O560" s="1"/>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15">
       <c r="A561" s="10"/>
       <c r="B561" s="10"/>
       <c r="C561" s="1"/>
@@ -15396,7 +15401,7 @@
       <c r="N561" s="1"/>
       <c r="O561" s="1"/>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15">
       <c r="A562" s="10"/>
       <c r="B562" s="10"/>
       <c r="C562" s="1"/>
@@ -15413,7 +15418,7 @@
       <c r="N562" s="1"/>
       <c r="O562" s="1"/>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15">
       <c r="A563" s="10"/>
       <c r="B563" s="10"/>
       <c r="C563" s="1"/>
@@ -15430,7 +15435,7 @@
       <c r="N563" s="1"/>
       <c r="O563" s="1"/>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15">
       <c r="A564" s="10"/>
       <c r="B564" s="10"/>
       <c r="C564" s="1"/>
@@ -15447,7 +15452,7 @@
       <c r="N564" s="1"/>
       <c r="O564" s="1"/>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15">
       <c r="A565" s="10"/>
       <c r="B565" s="10"/>
       <c r="C565" s="1"/>
@@ -15464,7 +15469,7 @@
       <c r="N565" s="1"/>
       <c r="O565" s="1"/>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15">
       <c r="A566" s="10"/>
       <c r="B566" s="10"/>
       <c r="C566" s="1"/>
@@ -15481,7 +15486,7 @@
       <c r="N566" s="1"/>
       <c r="O566" s="1"/>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15">
       <c r="A567" s="10"/>
       <c r="B567" s="10"/>
       <c r="C567" s="1"/>
@@ -15498,7 +15503,7 @@
       <c r="N567" s="1"/>
       <c r="O567" s="1"/>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15">
       <c r="A568" s="10"/>
       <c r="B568" s="10"/>
       <c r="C568" s="1"/>
@@ -15515,7 +15520,7 @@
       <c r="N568" s="1"/>
       <c r="O568" s="1"/>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15">
       <c r="A569" s="10"/>
       <c r="B569" s="10"/>
       <c r="C569" s="1"/>
@@ -15532,7 +15537,7 @@
       <c r="N569" s="1"/>
       <c r="O569" s="1"/>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15">
       <c r="A570" s="10"/>
       <c r="B570" s="10"/>
       <c r="C570" s="1"/>
@@ -15549,7 +15554,7 @@
       <c r="N570" s="1"/>
       <c r="O570" s="1"/>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15">
       <c r="A571" s="10"/>
       <c r="B571" s="10"/>
       <c r="C571" s="1"/>
@@ -15566,7 +15571,7 @@
       <c r="N571" s="1"/>
       <c r="O571" s="1"/>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15">
       <c r="A572" s="10"/>
       <c r="B572" s="10"/>
       <c r="C572" s="1"/>
@@ -15583,7 +15588,7 @@
       <c r="N572" s="1"/>
       <c r="O572" s="1"/>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15">
       <c r="A573" s="10"/>
       <c r="B573" s="10"/>
       <c r="C573" s="1"/>
@@ -15600,7 +15605,7 @@
       <c r="N573" s="1"/>
       <c r="O573" s="1"/>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15">
       <c r="A574" s="10"/>
       <c r="B574" s="10"/>
       <c r="C574" s="1"/>
@@ -15617,7 +15622,7 @@
       <c r="N574" s="1"/>
       <c r="O574" s="1"/>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15">
       <c r="A575" s="10"/>
       <c r="B575" s="10"/>
       <c r="C575" s="1"/>
@@ -15634,7 +15639,7 @@
       <c r="N575" s="1"/>
       <c r="O575" s="1"/>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15">
       <c r="A576" s="10"/>
       <c r="B576" s="10"/>
       <c r="C576" s="1"/>
@@ -15651,7 +15656,7 @@
       <c r="N576" s="1"/>
       <c r="O576" s="1"/>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15">
       <c r="A577" s="10"/>
       <c r="B577" s="10"/>
       <c r="C577" s="1"/>
@@ -15668,7 +15673,7 @@
       <c r="N577" s="1"/>
       <c r="O577" s="1"/>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15">
       <c r="A578" s="10"/>
       <c r="B578" s="10"/>
       <c r="C578" s="1"/>
@@ -15685,7 +15690,7 @@
       <c r="N578" s="1"/>
       <c r="O578" s="1"/>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15">
       <c r="A579" s="10"/>
       <c r="B579" s="10"/>
       <c r="C579" s="1"/>
@@ -15702,7 +15707,7 @@
       <c r="N579" s="1"/>
       <c r="O579" s="1"/>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15">
       <c r="A580" s="10"/>
       <c r="B580" s="10"/>
       <c r="C580" s="1"/>
@@ -15719,7 +15724,7 @@
       <c r="N580" s="1"/>
       <c r="O580" s="1"/>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15">
       <c r="A581" s="10"/>
       <c r="B581" s="10"/>
       <c r="C581" s="1"/>
@@ -15736,7 +15741,7 @@
       <c r="N581" s="1"/>
       <c r="O581" s="1"/>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15">
       <c r="A582" s="10"/>
       <c r="B582" s="10"/>
       <c r="C582" s="1"/>
@@ -15753,7 +15758,7 @@
       <c r="N582" s="1"/>
       <c r="O582" s="1"/>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15">
       <c r="A583" s="10"/>
       <c r="B583" s="10"/>
       <c r="C583" s="1"/>
@@ -15770,7 +15775,7 @@
       <c r="N583" s="1"/>
       <c r="O583" s="1"/>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15">
       <c r="A584" s="10"/>
       <c r="B584" s="10"/>
       <c r="C584" s="1"/>
@@ -15787,7 +15792,7 @@
       <c r="N584" s="1"/>
       <c r="O584" s="1"/>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15">
       <c r="A585" s="10"/>
       <c r="B585" s="10"/>
       <c r="C585" s="1"/>
@@ -15804,7 +15809,7 @@
       <c r="N585" s="1"/>
       <c r="O585" s="1"/>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15">
       <c r="A586" s="10"/>
       <c r="B586" s="10"/>
       <c r="C586" s="1"/>
@@ -15821,7 +15826,7 @@
       <c r="N586" s="1"/>
       <c r="O586" s="1"/>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15">
       <c r="A587" s="10"/>
       <c r="B587" s="10"/>
       <c r="C587" s="1"/>
@@ -15838,7 +15843,7 @@
       <c r="N587" s="1"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15">
       <c r="A588" s="10"/>
       <c r="B588" s="10"/>
       <c r="C588" s="1"/>
@@ -15855,7 +15860,7 @@
       <c r="N588" s="1"/>
       <c r="O588" s="1"/>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15">
       <c r="A589" s="10"/>
       <c r="B589" s="10"/>
       <c r="C589" s="1"/>
@@ -15872,7 +15877,7 @@
       <c r="N589" s="1"/>
       <c r="O589" s="1"/>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15">
       <c r="A590" s="10"/>
       <c r="B590" s="10"/>
       <c r="C590" s="1"/>
@@ -15889,7 +15894,7 @@
       <c r="N590" s="1"/>
       <c r="O590" s="1"/>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15">
       <c r="A591" s="10"/>
       <c r="B591" s="10"/>
       <c r="C591" s="1"/>
@@ -15906,7 +15911,7 @@
       <c r="N591" s="1"/>
       <c r="O591" s="1"/>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15">
       <c r="A592" s="10"/>
       <c r="B592" s="10"/>
       <c r="C592" s="1"/>
@@ -15925,21 +15930,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C95:L95"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F58:M58"/>
-    <mergeCell ref="F81:M81"/>
-    <mergeCell ref="F82:M82"/>
-    <mergeCell ref="F83:M83"/>
-    <mergeCell ref="F84:M84"/>
-    <mergeCell ref="F85:M85"/>
-    <mergeCell ref="F86:M86"/>
-    <mergeCell ref="F87:M87"/>
-    <mergeCell ref="F88:M88"/>
-    <mergeCell ref="F89:M89"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F55:M55"/>
@@ -15950,14 +15940,34 @@
     <mergeCell ref="B51:L51"/>
     <mergeCell ref="F53:M53"/>
     <mergeCell ref="F54:M54"/>
+    <mergeCell ref="F58:M58"/>
+    <mergeCell ref="F81:M81"/>
+    <mergeCell ref="F82:M82"/>
+    <mergeCell ref="F83:M83"/>
+    <mergeCell ref="F84:M84"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C95:L95"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F85:M85"/>
+    <mergeCell ref="F86:M86"/>
+    <mergeCell ref="F87:M87"/>
+    <mergeCell ref="F88:M88"/>
+    <mergeCell ref="F89:M89"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="landscape"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="49" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="13" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BeagleBone Blue Pin Table.xlsx
+++ b/BeagleBone Blue Pin Table.xlsx
@@ -2396,9 +2396,6 @@
     <t>***MDIR_1A</t>
   </si>
   <si>
-    <t>***LED_2</t>
-  </si>
-  <si>
     <t>***HDMI_INT</t>
   </si>
   <si>
@@ -2415,6 +2412,9 @@
   </si>
   <si>
     <t>** N/C</t>
+  </si>
+  <si>
+    <t>***BATT_LED_2</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3009,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3194,6 +3194,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3202,12 +3253,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3238,48 +3283,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3346,7 +3349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3381,7 +3384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3592,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR592"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3617,56 +3620,56 @@
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="83" t="s">
         <v>637</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="85" t="s">
         <v>638</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
@@ -3718,19 +3721,19 @@
       <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="14" spans="1:44" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>52</v>
@@ -4241,7 +4244,7 @@
     </row>
     <row r="15" spans="1:44" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>61</v>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="20" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>106</v>
@@ -4893,8 +4896,8 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="94" t="s">
-        <v>794</v>
+      <c r="A29" s="67" t="s">
+        <v>793</v>
       </c>
       <c r="B29" s="13">
         <v>26</v>
@@ -5086,9 +5089,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
-        <v>772</v>
-      </c>
+      <c r="A34" s="36"/>
       <c r="B34" s="32" t="s">
         <v>193</v>
       </c>
@@ -5113,7 +5114,7 @@
       <c r="I34" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="J34" s="52" t="s">
+      <c r="J34" s="32" t="s">
         <v>200</v>
       </c>
       <c r="K34" s="32" t="s">
@@ -5129,8 +5130,8 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
-        <v>789</v>
+      <c r="A35" s="53" t="s">
+        <v>795</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>203</v>
@@ -5165,7 +5166,7 @@
       <c r="L35" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="52" t="s">
         <v>212</v>
       </c>
       <c r="N35" s="1"/>
@@ -5215,7 +5216,9 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="67" t="s">
+        <v>772</v>
+      </c>
       <c r="B37" s="32" t="s">
         <v>221</v>
       </c>
@@ -5249,7 +5252,7 @@
       <c r="L37" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="M37" s="32" t="s">
+      <c r="M37" s="66" t="s">
         <v>230</v>
       </c>
       <c r="N37" s="1"/>
@@ -5299,7 +5302,7 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="67" t="s">
         <v>636</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -5342,7 +5345,7 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="67" t="s">
         <v>631</v>
       </c>
       <c r="B40" s="32" t="s">
@@ -5385,7 +5388,7 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="67" t="s">
         <v>774</v>
       </c>
       <c r="B41" s="32" t="s">
@@ -5412,7 +5415,7 @@
       <c r="I41" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="J41" s="52" t="s">
+      <c r="J41" s="66" t="s">
         <v>200</v>
       </c>
       <c r="K41" s="32" t="s">
@@ -5421,7 +5424,7 @@
       <c r="L41" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="32" t="s">
         <v>266</v>
       </c>
       <c r="N41" s="1"/>
@@ -5773,19 +5776,19 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22"/>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="91" t="s">
         <v>317</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="78"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="93"/>
       <c r="M51" s="23"/>
       <c r="N51" s="1"/>
     </row>
@@ -5840,16 +5843,16 @@
       <c r="C53" s="50"/>
       <c r="D53" s="50"/>
       <c r="E53" s="50"/>
-      <c r="F53" s="79" t="s">
+      <c r="F53" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="80"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="95"/>
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5862,16 +5865,16 @@
       <c r="C54" s="50"/>
       <c r="D54" s="50"/>
       <c r="E54" s="50"/>
-      <c r="F54" s="69" t="s">
+      <c r="F54" s="79" t="s">
         <v>472</v>
       </c>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="70"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="80"/>
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5884,16 +5887,16 @@
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="70"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="80"/>
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5904,20 +5907,20 @@
       <c r="C56" s="50"/>
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
-      <c r="F56" s="69" t="s">
+      <c r="F56" s="79" t="s">
         <v>322</v>
       </c>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="70"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="80"/>
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="67" t="s">
         <v>634</v>
       </c>
       <c r="B57" s="46">
@@ -5926,20 +5929,20 @@
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
-      <c r="F57" s="69" t="s">
+      <c r="F57" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="70"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="80"/>
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="67" t="s">
         <v>635</v>
       </c>
       <c r="B58" s="13">
@@ -5950,16 +5953,16 @@
       </c>
       <c r="D58" s="48"/>
       <c r="E58" s="48"/>
-      <c r="F58" s="69" t="s">
+      <c r="F58" s="79" t="s">
         <v>564</v>
       </c>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="70"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="80"/>
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6134,7 +6137,7 @@
       <c r="A63" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="B63" s="88">
+      <c r="B63" s="71">
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -6174,7 +6177,7 @@
     </row>
     <row r="64" spans="1:15" s="36" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="62"/>
-      <c r="B64" s="89"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="2" t="s">
         <v>740</v>
       </c>
@@ -6555,7 +6558,7 @@
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="94" t="s">
+      <c r="A73" s="67" t="s">
         <v>630</v>
       </c>
       <c r="B73" s="13">
@@ -6637,7 +6640,7 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="94" t="s">
+      <c r="A75" s="67" t="s">
         <v>629</v>
       </c>
       <c r="B75" s="13">
@@ -6894,16 +6897,16 @@
       <c r="E81" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="F81" s="81" t="s">
+      <c r="F81" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="81"/>
-      <c r="M81" s="82"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="77"/>
+      <c r="M81" s="78"/>
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6920,16 +6923,16 @@
       <c r="E82" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="F82" s="83" t="s">
+      <c r="F82" s="81" t="s">
         <v>429</v>
       </c>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="84"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="81"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="82"/>
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6946,16 +6949,16 @@
       <c r="E83" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="F83" s="81" t="s">
+      <c r="F83" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="81"/>
-      <c r="M83" s="82"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="78"/>
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6974,16 +6977,16 @@
       <c r="E84" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="F84" s="81" t="s">
+      <c r="F84" s="77" t="s">
         <v>432</v>
       </c>
-      <c r="G84" s="81"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="81"/>
-      <c r="J84" s="81"/>
-      <c r="K84" s="81"/>
-      <c r="L84" s="81"/>
-      <c r="M84" s="82"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="78"/>
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7002,16 +7005,16 @@
       <c r="E85" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="F85" s="93" t="s">
+      <c r="F85" s="76" t="s">
         <v>434</v>
       </c>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="93"/>
-      <c r="J85" s="93"/>
-      <c r="K85" s="93"/>
-      <c r="L85" s="93"/>
-      <c r="M85" s="93"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7030,16 +7033,16 @@
       <c r="E86" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="F86" s="81" t="s">
+      <c r="F86" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="G86" s="81"/>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
-      <c r="K86" s="81"/>
-      <c r="L86" s="81"/>
-      <c r="M86" s="82"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
+      <c r="M86" s="78"/>
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7058,16 +7061,16 @@
       <c r="E87" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="F87" s="81" t="s">
+      <c r="F87" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="81"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="82"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="78"/>
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7086,16 +7089,16 @@
       <c r="E88" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="F88" s="81" t="s">
+      <c r="F88" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="G88" s="81"/>
-      <c r="H88" s="81"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="81"/>
-      <c r="K88" s="81"/>
-      <c r="L88" s="81"/>
-      <c r="M88" s="82"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="78"/>
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7114,16 +7117,16 @@
       <c r="E89" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="F89" s="81" t="s">
+      <c r="F89" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="G89" s="81"/>
-      <c r="H89" s="81"/>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-      <c r="K89" s="81"/>
-      <c r="L89" s="81"/>
-      <c r="M89" s="82"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="78"/>
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7196,12 +7199,12 @@
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="B92" s="85" t="s">
+        <v>794</v>
+      </c>
+      <c r="B92" s="68" t="s">
         <v>456</v>
       </c>
-      <c r="C92" s="91" t="s">
+      <c r="C92" s="74" t="s">
         <v>457</v>
       </c>
       <c r="D92" s="32" t="s">
@@ -7210,7 +7213,7 @@
       <c r="E92" s="32" t="s">
         <v>717</v>
       </c>
-      <c r="F92" s="92" t="s">
+      <c r="F92" s="75" t="s">
         <v>458</v>
       </c>
       <c r="G92" s="35" t="s">
@@ -7236,11 +7239,11 @@
     </row>
     <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="55"/>
-      <c r="B93" s="86"/>
-      <c r="C93" s="91"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="32"/>
       <c r="E93" s="32"/>
-      <c r="F93" s="91"/>
+      <c r="F93" s="74"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
       <c r="I93" s="35" t="s">
@@ -7256,7 +7259,7 @@
       <c r="A94" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="B94" s="87"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="26" t="s">
         <v>464</v>
       </c>
@@ -7293,18 +7296,18 @@
       <c r="B95" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="C95" s="90" t="s">
+      <c r="C95" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="90"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="90"/>
-      <c r="H95" s="90"/>
-      <c r="I95" s="90"/>
-      <c r="J95" s="90"/>
-      <c r="K95" s="90"/>
-      <c r="L95" s="90"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73"/>
+      <c r="J95" s="73"/>
+      <c r="K95" s="73"/>
+      <c r="L95" s="73"/>
       <c r="M95" s="30"/>
       <c r="N95" s="1"/>
     </row>
@@ -7506,7 +7509,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="1" t="s">
@@ -15938,6 +15941,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="F56:M56"/>
+    <mergeCell ref="F57:M57"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="F58:M58"/>
+    <mergeCell ref="F81:M81"/>
+    <mergeCell ref="F82:M82"/>
+    <mergeCell ref="F83:M83"/>
+    <mergeCell ref="F84:M84"/>
     <mergeCell ref="B92:B94"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="C95:L95"/>
@@ -15948,21 +15966,6 @@
     <mergeCell ref="F87:M87"/>
     <mergeCell ref="F88:M88"/>
     <mergeCell ref="F89:M89"/>
-    <mergeCell ref="F58:M58"/>
-    <mergeCell ref="F81:M81"/>
-    <mergeCell ref="F82:M82"/>
-    <mergeCell ref="F83:M83"/>
-    <mergeCell ref="F84:M84"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="F55:M55"/>
-    <mergeCell ref="F56:M56"/>
-    <mergeCell ref="F57:M57"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="F54:M54"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="2" orientation="landscape" r:id="rId1"/>
